--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.53152147420112</v>
+        <v>14.53152147420119</v>
       </c>
       <c r="E2">
-        <v>37.03714530544486</v>
+        <v>37.0371453054449</v>
       </c>
       <c r="F2">
-        <v>88.94375899447914</v>
+        <v>88.94375899447896</v>
       </c>
       <c r="G2">
-        <v>72.89766826165965</v>
+        <v>72.89766826165956</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -435,13 +435,13 @@
         <v>13.0209748408834</v>
       </c>
       <c r="E3">
-        <v>32.99955046962405</v>
+        <v>32.99955046962399</v>
       </c>
       <c r="F3">
-        <v>79.88791569197686</v>
+        <v>79.88791569197676</v>
       </c>
       <c r="G3">
-        <v>65.45345228216661</v>
+        <v>65.45345228216652</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -452,16 +452,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12.1529435774417</v>
+        <v>12.15294357744163</v>
       </c>
       <c r="E4">
-        <v>30.70781068788391</v>
+        <v>30.70781068788396</v>
       </c>
       <c r="F4">
-        <v>74.62756247230651</v>
+        <v>74.62756247230661</v>
       </c>
       <c r="G4">
-        <v>61.13131480286441</v>
+        <v>61.13131480286447</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -472,16 +472,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>11.80639122023237</v>
+        <v>11.80639122023238</v>
       </c>
       <c r="E5">
-        <v>29.79764969097203</v>
+        <v>29.79764969097189</v>
       </c>
       <c r="F5">
-        <v>72.51792422029244</v>
+        <v>72.51792422029217</v>
       </c>
       <c r="G5">
-        <v>59.39812604937461</v>
+        <v>59.3981260493744</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>11.74912676376866</v>
+        <v>11.74912676376878</v>
       </c>
       <c r="E6">
-        <v>29.64749615289749</v>
+        <v>29.64749615289746</v>
       </c>
       <c r="F6">
-        <v>72.16885364562933</v>
+        <v>72.16885364562955</v>
       </c>
       <c r="G6">
-        <v>59.11134828023605</v>
+        <v>59.11134828023626</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -512,16 +512,16 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>12.14824807890242</v>
+        <v>12.14824807890239</v>
       </c>
       <c r="E7">
-        <v>30.69546152836838</v>
+        <v>30.69546152836845</v>
       </c>
       <c r="F7">
-        <v>74.59901250081312</v>
+        <v>74.59901250081327</v>
       </c>
       <c r="G7">
-        <v>61.1078589663434</v>
+        <v>61.10785896634348</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>13.99191243125799</v>
+        <v>13.99191243125787</v>
       </c>
       <c r="E8">
-        <v>35.5866044012426</v>
+        <v>35.58660440124245</v>
       </c>
       <c r="F8">
-        <v>85.72486336092257</v>
+        <v>85.72486336092237</v>
       </c>
       <c r="G8">
-        <v>70.25091336306714</v>
+        <v>70.25091336306693</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -552,16 +552,16 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E9">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F9">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G9">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E10">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F10">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G10">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E11">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F11">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G11">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -612,16 +612,16 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E12">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F12">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G12">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -632,16 +632,16 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E13">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F13">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G13">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -652,16 +652,16 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E14">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F14">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G14">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -672,16 +672,16 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E15">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F15">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G15">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -692,16 +692,16 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E16">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F16">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G16">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E17">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F17">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G17">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E18">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F18">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G18">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E19">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F19">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G19">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E20">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F20">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G20">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E21">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F21">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G21">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -812,16 +812,16 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E22">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F22">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G22">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E23">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F23">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G23">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E24">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F24">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G24">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -872,16 +872,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>19.68822210312651</v>
+        <v>19.68822210312656</v>
       </c>
       <c r="E25">
-        <v>51.74139197742183</v>
+        <v>51.74139197742211</v>
       </c>
       <c r="F25">
-        <v>118.3143796597024</v>
+        <v>118.3143796597031</v>
       </c>
       <c r="G25">
-        <v>97.13094667782364</v>
+        <v>97.13094667782418</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.53152147420119</v>
+        <v>14.53152147420112</v>
       </c>
       <c r="E2">
-        <v>37.0371453054449</v>
+        <v>37.03714530544486</v>
       </c>
       <c r="F2">
-        <v>88.94375899447896</v>
+        <v>88.94375899447914</v>
       </c>
       <c r="G2">
-        <v>72.89766826165956</v>
+        <v>72.89766826165965</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -435,13 +435,13 @@
         <v>13.0209748408834</v>
       </c>
       <c r="E3">
-        <v>32.99955046962399</v>
+        <v>32.99955046962405</v>
       </c>
       <c r="F3">
-        <v>79.88791569197676</v>
+        <v>79.88791569197686</v>
       </c>
       <c r="G3">
-        <v>65.45345228216652</v>
+        <v>65.45345228216661</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -452,16 +452,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12.15294357744163</v>
+        <v>12.1529435774417</v>
       </c>
       <c r="E4">
-        <v>30.70781068788396</v>
+        <v>30.70781068788391</v>
       </c>
       <c r="F4">
-        <v>74.62756247230661</v>
+        <v>74.62756247230651</v>
       </c>
       <c r="G4">
-        <v>61.13131480286447</v>
+        <v>61.13131480286441</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -472,16 +472,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>11.80639122023238</v>
+        <v>11.80639122023237</v>
       </c>
       <c r="E5">
-        <v>29.79764969097189</v>
+        <v>29.79764969097203</v>
       </c>
       <c r="F5">
-        <v>72.51792422029217</v>
+        <v>72.51792422029244</v>
       </c>
       <c r="G5">
-        <v>59.3981260493744</v>
+        <v>59.39812604937461</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>11.74912676376878</v>
+        <v>11.74912676376866</v>
       </c>
       <c r="E6">
-        <v>29.64749615289746</v>
+        <v>29.64749615289749</v>
       </c>
       <c r="F6">
-        <v>72.16885364562955</v>
+        <v>72.16885364562933</v>
       </c>
       <c r="G6">
-        <v>59.11134828023626</v>
+        <v>59.11134828023605</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -512,16 +512,16 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>12.14824807890239</v>
+        <v>12.14824807890242</v>
       </c>
       <c r="E7">
-        <v>30.69546152836845</v>
+        <v>30.69546152836838</v>
       </c>
       <c r="F7">
-        <v>74.59901250081327</v>
+        <v>74.59901250081312</v>
       </c>
       <c r="G7">
-        <v>61.10785896634348</v>
+        <v>61.1078589663434</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>13.99191243125787</v>
+        <v>13.99191243125799</v>
       </c>
       <c r="E8">
-        <v>35.58660440124245</v>
+        <v>35.5866044012426</v>
       </c>
       <c r="F8">
-        <v>85.72486336092237</v>
+        <v>85.72486336092257</v>
       </c>
       <c r="G8">
-        <v>70.25091336306693</v>
+        <v>70.25091336306714</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -552,16 +552,16 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E9">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F9">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G9">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E10">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F10">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G10">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E11">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F11">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G11">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -612,16 +612,16 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E12">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F12">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G12">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -632,16 +632,16 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E13">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F13">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G13">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -652,16 +652,16 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E14">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F14">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G14">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -672,16 +672,16 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E15">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F15">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G15">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -692,16 +692,16 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E16">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F16">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G16">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E17">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F17">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G17">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E18">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F18">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G18">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E19">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F19">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G19">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E20">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F20">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G20">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E21">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F21">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G21">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -812,16 +812,16 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E22">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F22">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G22">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E23">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F23">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G23">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E24">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F24">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G24">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -872,16 +872,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>19.68822210312656</v>
+        <v>19.68822210312651</v>
       </c>
       <c r="E25">
-        <v>51.74139197742211</v>
+        <v>51.74139197742183</v>
       </c>
       <c r="F25">
-        <v>118.3143796597031</v>
+        <v>118.3143796597024</v>
       </c>
       <c r="G25">
-        <v>97.13094667782418</v>
+        <v>97.13094667782364</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,484 +406,559 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.53152147420112</v>
+        <v>14.49735470887019</v>
       </c>
       <c r="E2">
-        <v>37.03714530544486</v>
+        <v>37.01031408261566</v>
       </c>
       <c r="F2">
-        <v>88.94375899447914</v>
+        <v>88.7923266157768</v>
       </c>
       <c r="G2">
-        <v>72.89766826165965</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>72.94665559117878</v>
+      </c>
+      <c r="H2">
+        <v>72.41940287699101</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13.0209748408834</v>
+        <v>12.99294404778394</v>
       </c>
       <c r="E3">
-        <v>32.99955046962405</v>
+        <v>32.98301002676259</v>
       </c>
       <c r="F3">
-        <v>79.88791569197686</v>
+        <v>79.76657934570326</v>
       </c>
       <c r="G3">
-        <v>65.45345228216661</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>65.50956785283654</v>
+      </c>
+      <c r="H3">
+        <v>65.03206447799536</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12.1529435774417</v>
+        <v>12.12779728164414</v>
       </c>
       <c r="E4">
-        <v>30.70781068788391</v>
+        <v>30.69523907468292</v>
       </c>
       <c r="F4">
-        <v>74.62756247230651</v>
+        <v>74.52004860554155</v>
       </c>
       <c r="G4">
-        <v>61.13131480286441</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>61.18854033276565</v>
+      </c>
+      <c r="H4">
+        <v>60.74312567587285</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>11.80639122023237</v>
+        <v>11.78230499274019</v>
       </c>
       <c r="E5">
-        <v>29.79764969097203</v>
+        <v>29.78638911053338</v>
       </c>
       <c r="F5">
-        <v>72.51792422029244</v>
+        <v>72.41542470739827</v>
       </c>
       <c r="G5">
-        <v>59.39812604937461</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>59.45535950258467</v>
+      </c>
+      <c r="H5">
+        <v>59.02361370347513</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>11.74912676376866</v>
+        <v>11.72521137939859</v>
       </c>
       <c r="E6">
-        <v>29.64749615289749</v>
+        <v>29.63643936670181</v>
       </c>
       <c r="F6">
-        <v>72.16885364562933</v>
+        <v>72.06715868700375</v>
       </c>
       <c r="G6">
-        <v>59.11134828023605</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>59.16856228715315</v>
+      </c>
+      <c r="H6">
+        <v>58.73912685349403</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>12.14824807890242</v>
+        <v>12.12311646011235</v>
       </c>
       <c r="E7">
-        <v>30.69546152836838</v>
+        <v>30.68290861270039</v>
       </c>
       <c r="F7">
-        <v>74.59901250081312</v>
+        <v>74.49156831404366</v>
       </c>
       <c r="G7">
-        <v>61.1078589663434</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>61.16508610655858</v>
+      </c>
+      <c r="H7">
+        <v>60.71985316880497</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>13.99191243125799</v>
+        <v>13.96014354739291</v>
       </c>
       <c r="E8">
-        <v>35.5866044012426</v>
+        <v>35.56407916640044</v>
       </c>
       <c r="F8">
-        <v>85.72486336092257</v>
+        <v>85.58528661475711</v>
       </c>
       <c r="G8">
-        <v>70.25091336306714</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>70.30339451281536</v>
+      </c>
+      <c r="H8">
+        <v>69.79312713553941</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E9">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F9">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G9">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H9">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E10">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F10">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G10">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H10">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E11">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F11">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G11">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H11">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E12">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F12">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G12">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H12">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E13">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F13">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G13">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H13">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E14">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F14">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G14">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H14">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E15">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F15">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G15">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H15">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E16">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F16">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G16">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H16">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E17">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F17">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G17">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H17">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E18">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F18">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G18">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H18">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E19">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F19">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G19">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H19">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E20">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F20">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G20">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H20">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E21">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F21">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G21">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H21">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E22">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F22">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G22">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H22">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E23">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F23">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G23">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H23">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E24">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F24">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G24">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H24">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="D25">
-        <v>19.68822210312651</v>
+        <v>19.56382356741362</v>
       </c>
       <c r="E25">
-        <v>51.74139197742183</v>
+        <v>51.45350302811465</v>
       </c>
       <c r="F25">
-        <v>118.3143796597024</v>
+        <v>117.7030713371526</v>
       </c>
       <c r="G25">
-        <v>97.13094667782364</v>
-      </c>
-      <c r="I25">
+        <v>96.85477676589798</v>
+      </c>
+      <c r="H25">
+        <v>96.1972558769984</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,557 +409,173 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>14.49735470887019</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37.01031408261566</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>88.7923266157768</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>72.94665559117878</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>72.41940287699101</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>12.99294404778394</v>
-      </c>
-      <c r="E3">
-        <v>32.98301002676259</v>
-      </c>
-      <c r="F3">
-        <v>79.76657934570326</v>
-      </c>
-      <c r="G3">
-        <v>65.50956785283654</v>
-      </c>
-      <c r="H3">
-        <v>65.03206447799536</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>12.12779728164414</v>
-      </c>
-      <c r="E4">
-        <v>30.69523907468292</v>
-      </c>
-      <c r="F4">
-        <v>74.52004860554155</v>
-      </c>
-      <c r="G4">
-        <v>61.18854033276565</v>
-      </c>
-      <c r="H4">
-        <v>60.74312567587285</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>11.78230499274019</v>
-      </c>
-      <c r="E5">
-        <v>29.78638911053338</v>
-      </c>
-      <c r="F5">
-        <v>72.41542470739827</v>
-      </c>
-      <c r="G5">
-        <v>59.45535950258467</v>
-      </c>
-      <c r="H5">
-        <v>59.02361370347513</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>11.72521137939859</v>
-      </c>
-      <c r="E6">
-        <v>29.63643936670181</v>
-      </c>
-      <c r="F6">
-        <v>72.06715868700375</v>
-      </c>
-      <c r="G6">
-        <v>59.16856228715315</v>
-      </c>
-      <c r="H6">
-        <v>58.73912685349403</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>12.12311646011235</v>
-      </c>
-      <c r="E7">
-        <v>30.68290861270039</v>
-      </c>
-      <c r="F7">
-        <v>74.49156831404366</v>
-      </c>
-      <c r="G7">
-        <v>61.16508610655858</v>
-      </c>
-      <c r="H7">
-        <v>60.71985316880497</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>13.96014354739291</v>
-      </c>
-      <c r="E8">
-        <v>35.56407916640044</v>
-      </c>
-      <c r="F8">
-        <v>85.58528661475711</v>
-      </c>
-      <c r="G8">
-        <v>70.30339451281536</v>
-      </c>
-      <c r="H8">
-        <v>69.79312713553941</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E9">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F9">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G9">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H9">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E10">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F10">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G10">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H10">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E11">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F11">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G11">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H11">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E12">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F12">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G12">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H12">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E13">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F13">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G13">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H13">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E14">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F14">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G14">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H14">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E15">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F15">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G15">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H15">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E16">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F16">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G16">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H16">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E17">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F17">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G17">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H17">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E18">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F18">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G18">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H18">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E19">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F19">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G19">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H19">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="D20">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E20">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F20">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G20">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H20">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E21">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F21">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G21">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H21">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D22">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E22">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F22">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G22">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H22">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D23">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E23">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F23">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G23">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H23">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E24">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F24">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G24">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H24">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
-      </c>
-      <c r="D25">
-        <v>19.56382356741362</v>
-      </c>
-      <c r="E25">
-        <v>51.45350302811465</v>
-      </c>
-      <c r="F25">
-        <v>117.7030713371526</v>
-      </c>
-      <c r="G25">
-        <v>96.85477676589798</v>
-      </c>
-      <c r="H25">
-        <v>96.1972558769984</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6.70871234806592</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.046618336726207</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.082206535868343</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28.03936926935998</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>35.68253702947761</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.55174998231925</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.83657824309565</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.823239649419435</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.30009679144072</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.74735088594463</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.86491578757236</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>6.347957049477089</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4.907138406567473</v>
+      </c>
+      <c r="E3">
+        <v>7.961140850120708</v>
+      </c>
+      <c r="F3">
+        <v>27.36172407465627</v>
+      </c>
+      <c r="G3">
+        <v>34.55161897462246</v>
+      </c>
+      <c r="H3">
+        <v>11.46800032169048</v>
+      </c>
+      <c r="I3">
+        <v>14.07950057125106</v>
+      </c>
+      <c r="J3">
+        <v>5.841926946952736</v>
+      </c>
+      <c r="K3">
+        <v>15.19646339973402</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>13.10228609866158</v>
+      </c>
+      <c r="N3">
+        <v>13.08890384576207</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>6.114854675021741</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4.821284281820111</v>
+      </c>
+      <c r="E4">
+        <v>7.890109667053364</v>
+      </c>
+      <c r="F4">
+        <v>26.96305006911751</v>
+      </c>
+      <c r="G4">
+        <v>33.8774816446921</v>
+      </c>
+      <c r="H4">
+        <v>11.42525980472313</v>
+      </c>
+      <c r="I4">
+        <v>14.23521377528173</v>
+      </c>
+      <c r="J4">
+        <v>5.855796023462221</v>
+      </c>
+      <c r="K4">
+        <v>14.48084141394677</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>12.69688534708706</v>
+      </c>
+      <c r="N4">
+        <v>13.22913638038053</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>6.016986961768636</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4.786289122744417</v>
+      </c>
+      <c r="E5">
+        <v>7.862005511498715</v>
+      </c>
+      <c r="F5">
+        <v>26.80504376428623</v>
+      </c>
+      <c r="G5">
+        <v>33.6081060015018</v>
+      </c>
+      <c r="H5">
+        <v>11.40995844213757</v>
+      </c>
+      <c r="I5">
+        <v>14.30029297640948</v>
+      </c>
+      <c r="J5">
+        <v>5.862035187258333</v>
+      </c>
+      <c r="K5">
+        <v>14.17959406417871</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>12.52954954765718</v>
+      </c>
+      <c r="N5">
+        <v>13.28699340833219</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>6.000563715790137</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4.780479016455775</v>
+      </c>
+      <c r="E6">
+        <v>7.857389957653902</v>
+      </c>
+      <c r="F6">
+        <v>26.77907825002413</v>
+      </c>
+      <c r="G6">
+        <v>33.56370615754203</v>
+      </c>
+      <c r="H6">
+        <v>11.40754342973116</v>
+      </c>
+      <c r="I6">
+        <v>14.31119682174251</v>
+      </c>
+      <c r="J6">
+        <v>5.863106250668491</v>
+      </c>
+      <c r="K6">
+        <v>14.12898874285152</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>12.50164173195544</v>
+      </c>
+      <c r="N6">
+        <v>13.29664436200219</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>6.11354638456644</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.820812300170071</v>
+      </c>
+      <c r="E7">
+        <v>7.889727223591601</v>
+      </c>
+      <c r="F7">
+        <v>26.96090099738</v>
+      </c>
+      <c r="G7">
+        <v>33.87382679900655</v>
+      </c>
+      <c r="H7">
+        <v>11.42504496947632</v>
+      </c>
+      <c r="I7">
+        <v>14.23608490673303</v>
+      </c>
+      <c r="J7">
+        <v>5.855877807803216</v>
+      </c>
+      <c r="K7">
+        <v>14.47681775486865</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>12.69463692157799</v>
+      </c>
+      <c r="N7">
+        <v>13.22991374076331</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>6.58675171876186</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4.998595810204074</v>
+      </c>
+      <c r="E8">
+        <v>8.039784369568054</v>
+      </c>
+      <c r="F8">
+        <v>27.80215608771805</v>
+      </c>
+      <c r="G8">
+        <v>35.28854202972684</v>
+      </c>
+      <c r="H8">
+        <v>11.5210312849187</v>
+      </c>
+      <c r="I8">
+        <v>13.91896105396875</v>
+      </c>
+      <c r="J8">
+        <v>5.829176830877919</v>
+      </c>
+      <c r="K8">
+        <v>15.92740244762911</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>13.52698664375323</v>
+      </c>
+      <c r="N8">
+        <v>12.94160537202725</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>7.421408898092828</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5.343725026208068</v>
+      </c>
+      <c r="E9">
+        <v>8.359733879361174</v>
+      </c>
+      <c r="F9">
+        <v>29.58616397979504</v>
+      </c>
+      <c r="G9">
+        <v>38.21296707696348</v>
+      </c>
+      <c r="H9">
+        <v>11.7810506994954</v>
+      </c>
+      <c r="I9">
+        <v>13.35040769875463</v>
+      </c>
+      <c r="J9">
+        <v>5.796518318028849</v>
+      </c>
+      <c r="K9">
+        <v>18.47413756523616</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>15.07750572393632</v>
+      </c>
+      <c r="N9">
+        <v>12.39615765617498</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>7.976577649093164</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5.592966940042355</v>
+      </c>
+      <c r="E10">
+        <v>8.609743324998416</v>
+      </c>
+      <c r="F10">
+        <v>30.97387552895532</v>
+      </c>
+      <c r="G10">
+        <v>40.44053294954933</v>
+      </c>
+      <c r="H10">
+        <v>12.01968494623066</v>
+      </c>
+      <c r="I10">
+        <v>12.96735389324579</v>
+      </c>
+      <c r="J10">
+        <v>5.785550972781628</v>
+      </c>
+      <c r="K10">
+        <v>20.16890308990692</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>16.32262011506188</v>
+      </c>
+      <c r="N10">
+        <v>12.00527976693627</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>8.21640554895774</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5.705026552759382</v>
+      </c>
+      <c r="E11">
+        <v>8.726577142675076</v>
+      </c>
+      <c r="F11">
+        <v>31.62102981171935</v>
+      </c>
+      <c r="G11">
+        <v>41.46902497525706</v>
+      </c>
+      <c r="H11">
+        <v>12.1393690770998</v>
+      </c>
+      <c r="I11">
+        <v>12.80122388823157</v>
+      </c>
+      <c r="J11">
+        <v>5.783627407186744</v>
+      </c>
+      <c r="K11">
+        <v>20.90285173505282</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>16.91901405675782</v>
+      </c>
+      <c r="N11">
+        <v>11.8290502575891</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>8.305387868571652</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5.747243461071419</v>
+      </c>
+      <c r="E12">
+        <v>8.771254059700174</v>
+      </c>
+      <c r="F12">
+        <v>31.86831871945769</v>
+      </c>
+      <c r="G12">
+        <v>41.86055057413808</v>
+      </c>
+      <c r="H12">
+        <v>12.18635356059118</v>
+      </c>
+      <c r="I12">
+        <v>12.73954530605625</v>
+      </c>
+      <c r="J12">
+        <v>5.783360782505452</v>
+      </c>
+      <c r="K12">
+        <v>21.17556614687425</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>17.1406464632025</v>
+      </c>
+      <c r="N12">
+        <v>11.76249491408725</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>8.286305614842663</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5.738161368392167</v>
+      </c>
+      <c r="E13">
+        <v>8.761612929477568</v>
+      </c>
+      <c r="F13">
+        <v>31.81496233116579</v>
+      </c>
+      <c r="G13">
+        <v>41.77613842600491</v>
+      </c>
+      <c r="H13">
+        <v>12.17615966531725</v>
+      </c>
+      <c r="I13">
+        <v>12.75277301497444</v>
+      </c>
+      <c r="J13">
+        <v>5.783397319779613</v>
+      </c>
+      <c r="K13">
+        <v>21.11706244015151</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>17.09309971755383</v>
+      </c>
+      <c r="N13">
+        <v>11.7768216576063</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>8.223762981012904</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5.708504268012829</v>
+      </c>
+      <c r="E14">
+        <v>8.730244092506585</v>
+      </c>
+      <c r="F14">
+        <v>31.64133006813239</v>
+      </c>
+      <c r="G14">
+        <v>41.50119530339882</v>
+      </c>
+      <c r="H14">
+        <v>12.1432008373806</v>
+      </c>
+      <c r="I14">
+        <v>12.79612447934106</v>
+      </c>
+      <c r="J14">
+        <v>5.783596092435835</v>
+      </c>
+      <c r="K14">
+        <v>20.92539201879823</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>16.93733172751125</v>
+      </c>
+      <c r="N14">
+        <v>11.82357141616847</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>8.185214688488559</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5.690309348140431</v>
+      </c>
+      <c r="E15">
+        <v>8.711086039316363</v>
+      </c>
+      <c r="F15">
+        <v>31.53526378733877</v>
+      </c>
+      <c r="G15">
+        <v>41.33304991384747</v>
+      </c>
+      <c r="H15">
+        <v>12.12323099275489</v>
+      </c>
+      <c r="I15">
+        <v>12.82284089872986</v>
+      </c>
+      <c r="J15">
+        <v>5.783778627971182</v>
+      </c>
+      <c r="K15">
+        <v>20.80731233506195</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>16.84137386075813</v>
+      </c>
+      <c r="N15">
+        <v>11.85222878465025</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>7.960647746231418</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5.585614532201385</v>
+      </c>
+      <c r="E16">
+        <v>8.602169360638833</v>
+      </c>
+      <c r="F16">
+        <v>30.93189658627125</v>
+      </c>
+      <c r="G16">
+        <v>40.37361212836622</v>
+      </c>
+      <c r="H16">
+        <v>12.01209257580321</v>
+      </c>
+      <c r="I16">
+        <v>12.97837950454245</v>
+      </c>
+      <c r="J16">
+        <v>5.785740133679417</v>
+      </c>
+      <c r="K16">
+        <v>20.12020199246334</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>16.28305053368953</v>
+      </c>
+      <c r="N16">
+        <v>12.01682456066325</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>7.819619466974602</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5.521028189291577</v>
+      </c>
+      <c r="E17">
+        <v>8.536138427508096</v>
+      </c>
+      <c r="F17">
+        <v>30.56576972331507</v>
+      </c>
+      <c r="G17">
+        <v>39.78880945973233</v>
+      </c>
+      <c r="H17">
+        <v>11.9468074487473</v>
+      </c>
+      <c r="I17">
+        <v>13.07591970094779</v>
+      </c>
+      <c r="J17">
+        <v>5.78774315364044</v>
+      </c>
+      <c r="K17">
+        <v>19.68927630195884</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15.93294608275979</v>
+      </c>
+      <c r="N17">
+        <v>12.11817074548651</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>7.737306443346063</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5.483756810085064</v>
+      </c>
+      <c r="E18">
+        <v>8.498451892995329</v>
+      </c>
+      <c r="F18">
+        <v>30.35668003245716</v>
+      </c>
+      <c r="G18">
+        <v>39.45387800346769</v>
+      </c>
+      <c r="H18">
+        <v>11.91030091186523</v>
+      </c>
+      <c r="I18">
+        <v>13.13278247096564</v>
+      </c>
+      <c r="J18">
+        <v>5.789182455945395</v>
+      </c>
+      <c r="K18">
+        <v>19.43792906853655</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>15.72875802172605</v>
+      </c>
+      <c r="N18">
+        <v>12.17661451066803</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>7.709231280503843</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5.471117139843396</v>
+      </c>
+      <c r="E19">
+        <v>8.485742539774163</v>
+      </c>
+      <c r="F19">
+        <v>30.28614501248431</v>
+      </c>
+      <c r="G19">
+        <v>39.34072633637494</v>
+      </c>
+      <c r="H19">
+        <v>11.89811778440146</v>
+      </c>
+      <c r="I19">
+        <v>13.1521640374641</v>
+      </c>
+      <c r="J19">
+        <v>5.789718489578656</v>
+      </c>
+      <c r="K19">
+        <v>19.35222466463711</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>15.65913703992369</v>
+      </c>
+      <c r="N19">
+        <v>12.19643011069674</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>7.834756138616436</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5.527916461023859</v>
+      </c>
+      <c r="E20">
+        <v>8.543137329351115</v>
+      </c>
+      <c r="F20">
+        <v>30.60459012210984</v>
+      </c>
+      <c r="G20">
+        <v>39.85091557707723</v>
+      </c>
+      <c r="H20">
+        <v>11.95364868622027</v>
+      </c>
+      <c r="I20">
+        <v>13.06545727462675</v>
+      </c>
+      <c r="J20">
+        <v>5.787500054706217</v>
+      </c>
+      <c r="K20">
+        <v>19.73550955320735</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>15.97050626321429</v>
+      </c>
+      <c r="N20">
+        <v>12.10736686709709</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>8.242183107187422</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5.717221382854772</v>
+      </c>
+      <c r="E21">
+        <v>8.739446172964662</v>
+      </c>
+      <c r="F21">
+        <v>31.69227002302022</v>
+      </c>
+      <c r="G21">
+        <v>41.58189764220171</v>
+      </c>
+      <c r="H21">
+        <v>12.15283602012961</v>
+      </c>
+      <c r="I21">
+        <v>12.78335713273901</v>
+      </c>
+      <c r="J21">
+        <v>5.783525002117269</v>
+      </c>
+      <c r="K21">
+        <v>20.98183094973447</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>16.98319807595734</v>
+      </c>
+      <c r="N21">
+        <v>11.80983543014536</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>8.497762432735662</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>5.839664728037537</v>
+      </c>
+      <c r="E22">
+        <v>8.870273872084141</v>
+      </c>
+      <c r="F22">
+        <v>32.41609375386961</v>
+      </c>
+      <c r="G22">
+        <v>42.72516906532181</v>
+      </c>
+      <c r="H22">
+        <v>12.29273728033175</v>
+      </c>
+      <c r="I22">
+        <v>12.60620207940676</v>
+      </c>
+      <c r="J22">
+        <v>5.783629356395013</v>
+      </c>
+      <c r="K22">
+        <v>21.76602554038755</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>17.62056157896218</v>
+      </c>
+      <c r="N22">
+        <v>11.61639891046351</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>8.362334807409978</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>5.774439404992179</v>
+      </c>
+      <c r="E23">
+        <v>8.800220678176117</v>
+      </c>
+      <c r="F23">
+        <v>32.02860265752065</v>
+      </c>
+      <c r="G23">
+        <v>42.11391540069609</v>
+      </c>
+      <c r="H23">
+        <v>12.21715915301049</v>
+      </c>
+      <c r="I23">
+        <v>12.70006936236983</v>
+      </c>
+      <c r="J23">
+        <v>5.783319149687661</v>
+      </c>
+      <c r="K23">
+        <v>21.35022614478701</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>17.2825993310104</v>
+      </c>
+      <c r="N23">
+        <v>11.71956367472894</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>7.827916692464748</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>5.524802706772869</v>
+      </c>
+      <c r="E24">
+        <v>8.539972266697184</v>
+      </c>
+      <c r="F24">
+        <v>30.58703504972621</v>
+      </c>
+      <c r="G24">
+        <v>39.82283340650107</v>
+      </c>
+      <c r="H24">
+        <v>11.95055256937604</v>
+      </c>
+      <c r="I24">
+        <v>13.07018489520318</v>
+      </c>
+      <c r="J24">
+        <v>5.787609065061865</v>
+      </c>
+      <c r="K24">
+        <v>19.71461872863432</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>15.9535343709678</v>
+      </c>
+      <c r="N24">
+        <v>12.11225074092068</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7.205746507826295</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5.250973084045775</v>
+      </c>
+      <c r="E25">
+        <v>8.270502368347001</v>
+      </c>
+      <c r="F25">
+        <v>29.08968238492359</v>
+      </c>
+      <c r="G25">
+        <v>37.40714505908508</v>
+      </c>
+      <c r="H25">
+        <v>11.70261954698897</v>
+      </c>
+      <c r="I25">
+        <v>13.49830834287824</v>
+      </c>
+      <c r="J25">
+        <v>5.80314238944724</v>
+      </c>
+      <c r="K25">
+        <v>17.81654194348044</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>14.66774360969573</v>
+      </c>
+      <c r="N25">
+        <v>12.54180866466563</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.70871234806592</v>
+        <v>5.395797515623563</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.046618336726207</v>
+        <v>7.916171316735013</v>
       </c>
       <c r="E2">
-        <v>8.082206535868343</v>
+        <v>12.82347712581739</v>
       </c>
       <c r="F2">
-        <v>28.03936926935998</v>
+        <v>37.78070605950429</v>
       </c>
       <c r="G2">
-        <v>35.68253702947761</v>
+        <v>43.27792541234198</v>
       </c>
       <c r="H2">
-        <v>11.55174998231925</v>
+        <v>17.79846701943315</v>
       </c>
       <c r="I2">
-        <v>13.83657824309565</v>
+        <v>21.54351685093415</v>
       </c>
       <c r="J2">
-        <v>5.823239649419435</v>
+        <v>10.03009224842337</v>
       </c>
       <c r="K2">
-        <v>16.30009679144072</v>
+        <v>13.96414524196522</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.74735088594463</v>
+        <v>17.16354082990321</v>
       </c>
       <c r="N2">
-        <v>12.86491578757236</v>
+        <v>19.87187874832656</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.347957049477089</v>
+        <v>5.290501482306739</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.907138406567473</v>
+        <v>7.907760066427351</v>
       </c>
       <c r="E3">
-        <v>7.961140850120708</v>
+        <v>12.83401007021344</v>
       </c>
       <c r="F3">
-        <v>27.36172407465627</v>
+        <v>37.78104809818578</v>
       </c>
       <c r="G3">
-        <v>34.55161897462246</v>
+        <v>43.2070750696508</v>
       </c>
       <c r="H3">
-        <v>11.46800032169048</v>
+        <v>17.8356155312612</v>
       </c>
       <c r="I3">
-        <v>14.07950057125106</v>
+        <v>21.63384017979175</v>
       </c>
       <c r="J3">
-        <v>5.841926946952736</v>
+        <v>10.05179593171212</v>
       </c>
       <c r="K3">
-        <v>15.19646339973402</v>
+        <v>13.69884088830049</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.10228609866158</v>
+        <v>17.07279580918332</v>
       </c>
       <c r="N3">
-        <v>13.08890384576207</v>
+        <v>19.93655472237162</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.114854675021741</v>
+        <v>5.22570963216414</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.821284281820111</v>
+        <v>7.903549758240919</v>
       </c>
       <c r="E4">
-        <v>7.890109667053364</v>
+        <v>12.84237841870403</v>
       </c>
       <c r="F4">
-        <v>26.96305006911751</v>
+        <v>37.790566151704</v>
       </c>
       <c r="G4">
-        <v>33.8774816446921</v>
+        <v>43.17660695822381</v>
       </c>
       <c r="H4">
-        <v>11.42525980472313</v>
+        <v>17.86176092696136</v>
       </c>
       <c r="I4">
-        <v>14.23521377528173</v>
+        <v>21.69250092665276</v>
       </c>
       <c r="J4">
-        <v>5.855796023462221</v>
+        <v>10.06621231766221</v>
       </c>
       <c r="K4">
-        <v>14.48084141394677</v>
+        <v>13.53640856350783</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.69688534708706</v>
+        <v>17.02010126913667</v>
       </c>
       <c r="N4">
-        <v>13.22913638038053</v>
+        <v>19.97807633803815</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.016986961768636</v>
+        <v>5.199308668363292</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.786289122744417</v>
+        <v>7.902075457226503</v>
       </c>
       <c r="E5">
-        <v>7.862005511498715</v>
+        <v>12.84626703216499</v>
       </c>
       <c r="F5">
-        <v>26.80504376428623</v>
+        <v>37.79678409909848</v>
       </c>
       <c r="G5">
-        <v>33.6081060015018</v>
+        <v>43.16747323298054</v>
       </c>
       <c r="H5">
-        <v>11.40995844213757</v>
+        <v>17.87325289167611</v>
       </c>
       <c r="I5">
-        <v>14.30029297640948</v>
+        <v>21.7172118460362</v>
       </c>
       <c r="J5">
-        <v>5.862035187258333</v>
+        <v>10.07236156144383</v>
       </c>
       <c r="K5">
-        <v>14.17959406417871</v>
+        <v>13.4704260133897</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.52954954765718</v>
+        <v>16.99940490697095</v>
       </c>
       <c r="N5">
-        <v>13.28699340833219</v>
+        <v>19.99545339471487</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.000563715790137</v>
+        <v>5.194926051821601</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.780479016455775</v>
+        <v>7.901845273945303</v>
       </c>
       <c r="E6">
-        <v>7.857389957653902</v>
+        <v>12.84694164000367</v>
       </c>
       <c r="F6">
-        <v>26.77907825002413</v>
+        <v>37.79795780421536</v>
       </c>
       <c r="G6">
-        <v>33.56370615754203</v>
+        <v>43.16615489637577</v>
       </c>
       <c r="H6">
-        <v>11.40754342973116</v>
+        <v>17.87521166431017</v>
       </c>
       <c r="I6">
-        <v>14.31119682174251</v>
+        <v>21.72136379868042</v>
       </c>
       <c r="J6">
-        <v>5.863106250668491</v>
+        <v>10.07339922358669</v>
       </c>
       <c r="K6">
-        <v>14.12898874285152</v>
+        <v>13.45948507796738</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.50164173195544</v>
+        <v>16.99601569774345</v>
       </c>
       <c r="N6">
-        <v>13.29664436200219</v>
+        <v>19.99836646541931</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.11354638456644</v>
+        <v>5.225353520471842</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.820812300170071</v>
+        <v>7.903528895855934</v>
       </c>
       <c r="E7">
-        <v>7.889727223591601</v>
+        <v>12.84242892424647</v>
       </c>
       <c r="F7">
-        <v>26.96090099738</v>
+        <v>37.79064054038624</v>
       </c>
       <c r="G7">
-        <v>33.87382679900655</v>
+        <v>43.1764704842333</v>
       </c>
       <c r="H7">
-        <v>11.42504496947632</v>
+        <v>17.86191252253711</v>
       </c>
       <c r="I7">
-        <v>14.23608490673303</v>
+        <v>21.6928309211218</v>
       </c>
       <c r="J7">
-        <v>5.855877807803216</v>
+        <v>10.06629413688191</v>
       </c>
       <c r="K7">
-        <v>14.47681775486865</v>
+        <v>13.53551772616615</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.69463692157799</v>
+        <v>17.01981898289102</v>
       </c>
       <c r="N7">
-        <v>13.22991374076331</v>
+        <v>19.97830884019794</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.58675171876186</v>
+        <v>5.359542565692582</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.998595810204074</v>
+        <v>7.913073986182567</v>
       </c>
       <c r="E8">
-        <v>8.039784369568054</v>
+        <v>12.82671458545462</v>
       </c>
       <c r="F8">
-        <v>27.80215608771805</v>
+        <v>37.77889172502474</v>
       </c>
       <c r="G8">
-        <v>35.28854202972684</v>
+        <v>43.25079479131792</v>
       </c>
       <c r="H8">
-        <v>11.5210312849187</v>
+        <v>17.81058263291044</v>
       </c>
       <c r="I8">
-        <v>13.91896105396875</v>
+        <v>21.57399642340144</v>
       </c>
       <c r="J8">
-        <v>5.829176830877919</v>
+        <v>10.03734958086465</v>
       </c>
       <c r="K8">
-        <v>15.92740244762911</v>
+        <v>13.87262693989371</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.52698664375323</v>
+        <v>17.13163490523961</v>
       </c>
       <c r="N8">
-        <v>12.94160537202725</v>
+        <v>19.89380416940566</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.421408898092828</v>
+        <v>5.619987556212911</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.343725026208068</v>
+        <v>7.939294618764425</v>
       </c>
       <c r="E9">
-        <v>8.359733879361174</v>
+        <v>12.81096251469837</v>
       </c>
       <c r="F9">
-        <v>29.58616397979504</v>
+        <v>37.82970938157337</v>
       </c>
       <c r="G9">
-        <v>38.21296707696348</v>
+        <v>43.49960583896998</v>
       </c>
       <c r="H9">
-        <v>11.7810506994954</v>
+        <v>17.73645294475263</v>
       </c>
       <c r="I9">
-        <v>13.35040769875463</v>
+        <v>21.36631919632111</v>
       </c>
       <c r="J9">
-        <v>5.796518318028849</v>
+        <v>9.989226621386663</v>
       </c>
       <c r="K9">
-        <v>18.47413756523616</v>
+        <v>14.53339623531386</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.07750572393632</v>
+        <v>17.37410541556003</v>
       </c>
       <c r="N9">
-        <v>12.39615765617498</v>
+        <v>19.74238758501389</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.976577649093164</v>
+        <v>5.807648926691398</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.592966940042355</v>
+        <v>7.963035624952786</v>
       </c>
       <c r="E10">
-        <v>8.609743324998416</v>
+        <v>12.80854087829081</v>
       </c>
       <c r="F10">
-        <v>30.97387552895532</v>
+        <v>37.91198963245863</v>
       </c>
       <c r="G10">
-        <v>40.44053294954933</v>
+        <v>43.74453142273373</v>
       </c>
       <c r="H10">
-        <v>12.01968494623066</v>
+        <v>17.69823589791529</v>
       </c>
       <c r="I10">
-        <v>12.96735389324579</v>
+        <v>21.22912884849794</v>
       </c>
       <c r="J10">
-        <v>5.785550972781628</v>
+        <v>9.959118107562185</v>
       </c>
       <c r="K10">
-        <v>20.16890308990692</v>
+        <v>15.01350207853104</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.32262011506188</v>
+        <v>17.56527227192494</v>
       </c>
       <c r="N10">
-        <v>12.00527976693627</v>
+        <v>19.63976182052728</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.21640554895774</v>
+        <v>5.891818367488371</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.705026552759382</v>
+        <v>7.974785246172286</v>
       </c>
       <c r="E11">
-        <v>8.726577142675076</v>
+        <v>12.80941736573726</v>
       </c>
       <c r="F11">
-        <v>31.62102981171935</v>
+        <v>37.95913226507827</v>
       </c>
       <c r="G11">
-        <v>41.46902497525706</v>
+        <v>43.8692214554391</v>
       </c>
       <c r="H11">
-        <v>12.1393690770998</v>
+        <v>17.68439084124353</v>
       </c>
       <c r="I11">
-        <v>12.80122388823157</v>
+        <v>21.17004525393207</v>
       </c>
       <c r="J11">
-        <v>5.783627407186744</v>
+        <v>9.946556580284485</v>
       </c>
       <c r="K11">
-        <v>20.90285173505282</v>
+        <v>15.22971847344746</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.91901405675782</v>
+        <v>17.65481106642963</v>
       </c>
       <c r="N11">
-        <v>11.8290502575891</v>
+        <v>19.59492597019015</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.305387868571652</v>
+        <v>5.923487653642112</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.747243461071419</v>
+        <v>7.97936895570904</v>
       </c>
       <c r="E12">
-        <v>8.771254059700174</v>
+        <v>12.81003272596484</v>
       </c>
       <c r="F12">
-        <v>31.86831871945769</v>
+        <v>37.97837393013333</v>
       </c>
       <c r="G12">
-        <v>41.86055057413808</v>
+        <v>43.91832257888874</v>
       </c>
       <c r="H12">
-        <v>12.18635356059118</v>
+        <v>17.67965795347401</v>
       </c>
       <c r="I12">
-        <v>12.73954530605625</v>
+        <v>21.14814903376196</v>
       </c>
       <c r="J12">
-        <v>5.783360782505452</v>
+        <v>9.94196277188683</v>
       </c>
       <c r="K12">
-        <v>21.17556614687425</v>
+        <v>15.31119893585976</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.1406464632025</v>
+        <v>17.68906485058046</v>
       </c>
       <c r="N12">
-        <v>11.76249491408725</v>
+        <v>19.57821218278128</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.286305614842663</v>
+        <v>5.916676653918078</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.738161368392167</v>
+        <v>7.978375831043184</v>
       </c>
       <c r="E13">
-        <v>8.761612929477568</v>
+        <v>12.80988760761771</v>
       </c>
       <c r="F13">
-        <v>31.81496233116579</v>
+        <v>37.97416820963778</v>
       </c>
       <c r="G13">
-        <v>41.77613842600491</v>
+        <v>43.90766442478684</v>
       </c>
       <c r="H13">
-        <v>12.17615966531725</v>
+        <v>17.68065457374274</v>
       </c>
       <c r="I13">
-        <v>12.75277301497444</v>
+        <v>21.15284355194398</v>
       </c>
       <c r="J13">
-        <v>5.783397319779613</v>
+        <v>9.942944886444028</v>
       </c>
       <c r="K13">
-        <v>21.11706244015151</v>
+        <v>15.29366952470171</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.09309971755383</v>
+        <v>17.68167260809834</v>
       </c>
       <c r="N13">
-        <v>11.7768216576063</v>
+        <v>19.58180004986155</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.223762981012904</v>
+        <v>5.894428077891669</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.708504268012829</v>
+        <v>7.975159670369248</v>
       </c>
       <c r="E14">
-        <v>8.730244092506585</v>
+        <v>12.80946231710077</v>
       </c>
       <c r="F14">
-        <v>31.64133006813239</v>
+        <v>37.96068748055092</v>
       </c>
       <c r="G14">
-        <v>41.50119530339882</v>
+        <v>43.87322343581175</v>
       </c>
       <c r="H14">
-        <v>12.1432008373806</v>
+        <v>17.68399123940044</v>
       </c>
       <c r="I14">
-        <v>12.79612447934106</v>
+        <v>21.16823427354134</v>
       </c>
       <c r="J14">
-        <v>5.783596092435835</v>
+        <v>9.946175380132138</v>
       </c>
       <c r="K14">
-        <v>20.92539201879823</v>
+        <v>15.23643030819007</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.93733172751125</v>
+        <v>17.65762231774092</v>
       </c>
       <c r="N14">
-        <v>11.82357141616847</v>
+        <v>19.5935456219038</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.185214688488559</v>
+        <v>5.880772732570686</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.690309348140431</v>
+        <v>7.973207113072226</v>
       </c>
       <c r="E15">
-        <v>8.711086039316363</v>
+        <v>12.80923869675411</v>
       </c>
       <c r="F15">
-        <v>31.53526378733877</v>
+        <v>37.95261090194971</v>
       </c>
       <c r="G15">
-        <v>41.33304991384747</v>
+        <v>43.85237185808627</v>
       </c>
       <c r="H15">
-        <v>12.12323099275489</v>
+        <v>17.68610147537609</v>
       </c>
       <c r="I15">
-        <v>12.82284089872986</v>
+        <v>21.17772369427112</v>
       </c>
       <c r="J15">
-        <v>5.783778627971182</v>
+        <v>9.948175367076962</v>
       </c>
       <c r="K15">
-        <v>20.80731233506195</v>
+        <v>15.20131571833896</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.84137386075813</v>
+        <v>17.64293536670354</v>
       </c>
       <c r="N15">
-        <v>11.85222878465025</v>
+        <v>19.60077454035132</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.960647746231418</v>
+        <v>5.802121400963552</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.585614532201385</v>
+        <v>7.962286685936967</v>
       </c>
       <c r="E16">
-        <v>8.602169360638833</v>
+        <v>12.8085233199758</v>
       </c>
       <c r="F16">
-        <v>30.93189658627125</v>
+        <v>37.90910364224008</v>
       </c>
       <c r="G16">
-        <v>40.37361212836622</v>
+        <v>43.73664766111004</v>
       </c>
       <c r="H16">
-        <v>12.01209257580321</v>
+        <v>17.69921201869165</v>
       </c>
       <c r="I16">
-        <v>12.97837950454245</v>
+        <v>21.23305694906855</v>
       </c>
       <c r="J16">
-        <v>5.785740133679417</v>
+        <v>9.95996185120765</v>
       </c>
       <c r="K16">
-        <v>20.12020199246334</v>
+        <v>14.99932075940225</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.28305053368953</v>
+        <v>17.55947058096217</v>
       </c>
       <c r="N16">
-        <v>12.01682456066325</v>
+        <v>19.6427290443478</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.819619466974602</v>
+        <v>5.753541351680461</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.521028189291577</v>
+        <v>7.955829082018131</v>
       </c>
       <c r="E17">
-        <v>8.536138427508096</v>
+        <v>12.80859042972407</v>
       </c>
       <c r="F17">
-        <v>30.56576972331507</v>
+        <v>37.88489662215419</v>
       </c>
       <c r="G17">
-        <v>39.78880945973233</v>
+        <v>43.66903734439474</v>
       </c>
       <c r="H17">
-        <v>11.9468074487473</v>
+        <v>17.70816228227103</v>
       </c>
       <c r="I17">
-        <v>13.07591970094779</v>
+        <v>21.26785322538029</v>
       </c>
       <c r="J17">
-        <v>5.78774315364044</v>
+        <v>9.96748300386532</v>
       </c>
       <c r="K17">
-        <v>19.68927630195884</v>
+        <v>14.87478400267532</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.93294608275979</v>
+        <v>17.50891121601882</v>
       </c>
       <c r="N17">
-        <v>12.11817074548651</v>
+        <v>19.66893943242027</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.737306443346063</v>
+        <v>5.725488334951478</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.483756810085064</v>
+        <v>7.952204368605746</v>
       </c>
       <c r="E18">
-        <v>8.498451892995329</v>
+        <v>12.80881528511361</v>
       </c>
       <c r="F18">
-        <v>30.35668003245716</v>
+        <v>37.87188812543618</v>
       </c>
       <c r="G18">
-        <v>39.45387800346769</v>
+        <v>43.63140061640745</v>
       </c>
       <c r="H18">
-        <v>11.91030091186523</v>
+        <v>17.71364340238705</v>
       </c>
       <c r="I18">
-        <v>13.13278247096564</v>
+        <v>21.28818012417985</v>
       </c>
       <c r="J18">
-        <v>5.789182455945395</v>
+        <v>9.971915816641665</v>
       </c>
       <c r="K18">
-        <v>19.43792906853655</v>
+        <v>14.80295259455449</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.72875802172605</v>
+        <v>17.48007469465001</v>
       </c>
       <c r="N18">
-        <v>12.17661451066803</v>
+        <v>19.68418908133886</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.709231280503843</v>
+        <v>5.715971981567895</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.471117139843396</v>
+        <v>7.950992544559919</v>
       </c>
       <c r="E19">
-        <v>8.485742539774163</v>
+        <v>12.80892343517982</v>
       </c>
       <c r="F19">
-        <v>30.28614501248431</v>
+        <v>37.8676409655497</v>
       </c>
       <c r="G19">
-        <v>39.34072633637494</v>
+        <v>43.61887301805631</v>
       </c>
       <c r="H19">
-        <v>11.89811778440146</v>
+        <v>17.71555640771224</v>
       </c>
       <c r="I19">
-        <v>13.1521640374641</v>
+        <v>21.29511624223161</v>
       </c>
       <c r="J19">
-        <v>5.789718489578656</v>
+        <v>9.97343504888263</v>
       </c>
       <c r="K19">
-        <v>19.35222466463711</v>
+        <v>14.77859972364258</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.65913703992369</v>
+        <v>17.47035372447721</v>
       </c>
       <c r="N19">
-        <v>12.19643011069674</v>
+        <v>19.68938229748868</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.834756138616436</v>
+        <v>5.758724508962015</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.527916461023859</v>
+        <v>7.956507254509831</v>
       </c>
       <c r="E20">
-        <v>8.543137329351115</v>
+        <v>12.80856401584185</v>
       </c>
       <c r="F20">
-        <v>30.60459012210984</v>
+        <v>37.88737887375317</v>
       </c>
       <c r="G20">
-        <v>39.85091557707723</v>
+        <v>43.6761052796961</v>
       </c>
       <c r="H20">
-        <v>11.95364868622027</v>
+        <v>17.70717502320164</v>
       </c>
       <c r="I20">
-        <v>13.06545727462675</v>
+        <v>21.26411671291686</v>
       </c>
       <c r="J20">
-        <v>5.787500054706217</v>
+        <v>9.966671308037975</v>
       </c>
       <c r="K20">
-        <v>19.73550955320735</v>
+        <v>14.88806257754539</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.97050626321429</v>
+        <v>17.5142682702918</v>
       </c>
       <c r="N20">
-        <v>12.10736686709709</v>
+        <v>19.66613127999472</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.242183107187422</v>
+        <v>5.900968798086256</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.717221382854772</v>
+        <v>7.976100705541217</v>
       </c>
       <c r="E21">
-        <v>8.739446172964662</v>
+        <v>12.80957955093036</v>
       </c>
       <c r="F21">
-        <v>31.69227002302022</v>
+        <v>37.96460944236153</v>
       </c>
       <c r="G21">
-        <v>41.58189764220171</v>
+        <v>43.88328867974023</v>
       </c>
       <c r="H21">
-        <v>12.15283602012961</v>
+        <v>17.68299733411534</v>
       </c>
       <c r="I21">
-        <v>12.78335713273901</v>
+        <v>21.16370069272779</v>
       </c>
       <c r="J21">
-        <v>5.783525002117269</v>
+        <v>9.945222084803204</v>
       </c>
       <c r="K21">
-        <v>20.98183094973447</v>
+        <v>15.25325422923051</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.98319807595734</v>
+        <v>17.66467722950546</v>
       </c>
       <c r="N21">
-        <v>11.80983543014536</v>
+        <v>19.5900884926774</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.497762432735662</v>
+        <v>5.992732185901944</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.839664728037537</v>
+        <v>7.989688358177006</v>
       </c>
       <c r="E22">
-        <v>8.870273872084141</v>
+        <v>12.81189489691798</v>
       </c>
       <c r="F22">
-        <v>32.41609375386961</v>
+        <v>38.02318043763175</v>
       </c>
       <c r="G22">
-        <v>42.72516906532181</v>
+        <v>44.02966092552308</v>
       </c>
       <c r="H22">
-        <v>12.29273728033175</v>
+        <v>17.67016840219457</v>
       </c>
       <c r="I22">
-        <v>12.60620207940676</v>
+        <v>21.10085570478439</v>
       </c>
       <c r="J22">
-        <v>5.783629356395013</v>
+        <v>9.932153575845639</v>
       </c>
       <c r="K22">
-        <v>21.76602554038755</v>
+        <v>15.48958524599794</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.62056157896218</v>
+        <v>17.76499194475965</v>
       </c>
       <c r="N22">
-        <v>11.61639891046351</v>
+        <v>19.54193167859019</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.362334807409978</v>
+        <v>5.943876185100192</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.774439404992179</v>
+        <v>7.982365549831102</v>
       </c>
       <c r="E23">
-        <v>8.800220678176117</v>
+        <v>12.81050838902117</v>
       </c>
       <c r="F23">
-        <v>32.02860265752065</v>
+        <v>37.99118186903863</v>
       </c>
       <c r="G23">
-        <v>42.11391540069609</v>
+        <v>43.95054496363923</v>
       </c>
       <c r="H23">
-        <v>12.21715915301049</v>
+        <v>17.67674320365941</v>
       </c>
       <c r="I23">
-        <v>12.70006936236983</v>
+        <v>21.13414285449999</v>
       </c>
       <c r="J23">
-        <v>5.783319149687661</v>
+        <v>9.939041657917787</v>
       </c>
       <c r="K23">
-        <v>21.35022614478701</v>
+        <v>15.3636911136203</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.2825993310104</v>
+        <v>17.71127558762215</v>
       </c>
       <c r="N23">
-        <v>11.71956367472894</v>
+        <v>19.56749326084399</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.827916692464748</v>
+        <v>5.75638158644933</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.524802706772869</v>
+        <v>7.956200378937618</v>
       </c>
       <c r="E24">
-        <v>8.539972266697184</v>
+        <v>12.80857537727074</v>
       </c>
       <c r="F24">
-        <v>30.58703504972621</v>
+        <v>37.8862538174716</v>
       </c>
       <c r="G24">
-        <v>39.82283340650107</v>
+        <v>43.67290602240961</v>
       </c>
       <c r="H24">
-        <v>11.95055256937604</v>
+        <v>17.70762031799338</v>
       </c>
       <c r="I24">
-        <v>13.07018489520318</v>
+        <v>21.26580498693799</v>
       </c>
       <c r="J24">
-        <v>5.787609065061865</v>
+        <v>9.967037936790515</v>
       </c>
       <c r="K24">
-        <v>19.71461872863432</v>
+        <v>14.88206005506166</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.9535343709678</v>
+        <v>17.51184562557791</v>
       </c>
       <c r="N24">
-        <v>12.11225074092068</v>
+        <v>19.66740028192932</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.205746507826295</v>
+        <v>5.550035802011029</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.250973084045775</v>
+        <v>7.931407615515017</v>
       </c>
       <c r="E25">
-        <v>8.270502368347001</v>
+        <v>12.81361402385054</v>
       </c>
       <c r="F25">
-        <v>29.08968238492359</v>
+        <v>37.80805731783553</v>
       </c>
       <c r="G25">
-        <v>37.40714505908508</v>
+        <v>43.42132132872691</v>
       </c>
       <c r="H25">
-        <v>11.70261954698897</v>
+        <v>17.75365881997586</v>
       </c>
       <c r="I25">
-        <v>13.49830834287824</v>
+        <v>21.41979393563365</v>
       </c>
       <c r="J25">
-        <v>5.80314238944724</v>
+        <v>10.00132235010411</v>
       </c>
       <c r="K25">
-        <v>17.81654194348044</v>
+        <v>14.35521927587067</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.66774360969573</v>
+        <v>17.30613904213309</v>
       </c>
       <c r="N25">
-        <v>12.54180866466563</v>
+        <v>19.78182914108059</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.395797515623563</v>
+        <v>6.708712348065885</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.916171316735013</v>
+        <v>5.046618336726243</v>
       </c>
       <c r="E2">
-        <v>12.82347712581739</v>
+        <v>8.082206535868343</v>
       </c>
       <c r="F2">
-        <v>37.78070605950429</v>
+        <v>28.03936926936006</v>
       </c>
       <c r="G2">
-        <v>43.27792541234198</v>
+        <v>35.68253702947764</v>
       </c>
       <c r="H2">
-        <v>17.79846701943315</v>
+        <v>11.5517499823193</v>
       </c>
       <c r="I2">
-        <v>21.54351685093415</v>
+        <v>13.83657824309575</v>
       </c>
       <c r="J2">
-        <v>10.03009224842337</v>
+        <v>5.823239649419437</v>
       </c>
       <c r="K2">
-        <v>13.96414524196522</v>
+        <v>16.30009679144073</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.16354082990321</v>
+        <v>13.74735088594463</v>
       </c>
       <c r="N2">
-        <v>19.87187874832656</v>
+        <v>12.86491578757239</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.290501482306739</v>
+        <v>6.347957049477126</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.907760066427351</v>
+        <v>4.907138406567453</v>
       </c>
       <c r="E3">
-        <v>12.83401007021344</v>
+        <v>7.96114085012076</v>
       </c>
       <c r="F3">
-        <v>37.78104809818578</v>
+        <v>27.36172407465632</v>
       </c>
       <c r="G3">
-        <v>43.2070750696508</v>
+        <v>34.55161897462254</v>
       </c>
       <c r="H3">
-        <v>17.8356155312612</v>
+        <v>11.46800032169049</v>
       </c>
       <c r="I3">
-        <v>21.63384017979175</v>
+        <v>14.07950057125107</v>
       </c>
       <c r="J3">
-        <v>10.05179593171212</v>
+        <v>5.841926946952799</v>
       </c>
       <c r="K3">
-        <v>13.69884088830049</v>
+        <v>15.19646339973406</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.07279580918332</v>
+        <v>13.10228609866157</v>
       </c>
       <c r="N3">
-        <v>19.93655472237162</v>
+        <v>13.08890384576214</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.22570963216414</v>
+        <v>6.114854675021758</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.903549758240919</v>
+        <v>4.82128428181997</v>
       </c>
       <c r="E4">
-        <v>12.84237841870403</v>
+        <v>7.890109667053262</v>
       </c>
       <c r="F4">
-        <v>37.790566151704</v>
+        <v>26.96305006911716</v>
       </c>
       <c r="G4">
-        <v>43.17660695822381</v>
+        <v>33.87748164469186</v>
       </c>
       <c r="H4">
-        <v>17.86176092696136</v>
+        <v>11.425259804723</v>
       </c>
       <c r="I4">
-        <v>21.69250092665276</v>
+        <v>14.23521377528163</v>
       </c>
       <c r="J4">
-        <v>10.06621231766221</v>
+        <v>5.855796023462187</v>
       </c>
       <c r="K4">
-        <v>13.53640856350783</v>
+        <v>14.48084141394686</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.02010126913667</v>
+        <v>12.69688534708699</v>
       </c>
       <c r="N4">
-        <v>19.97807633803815</v>
+        <v>13.22913638038047</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.199308668363292</v>
+        <v>6.016986961768675</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.902075457226503</v>
+        <v>4.786289122744435</v>
       </c>
       <c r="E5">
-        <v>12.84626703216499</v>
+        <v>7.862005511498774</v>
       </c>
       <c r="F5">
-        <v>37.79678409909848</v>
+        <v>26.80504376428625</v>
       </c>
       <c r="G5">
-        <v>43.16747323298054</v>
+        <v>33.60810600150187</v>
       </c>
       <c r="H5">
-        <v>17.87325289167611</v>
+        <v>11.40995844213753</v>
       </c>
       <c r="I5">
-        <v>21.7172118460362</v>
+        <v>14.30029297640942</v>
       </c>
       <c r="J5">
-        <v>10.07236156144383</v>
+        <v>5.862035187258365</v>
       </c>
       <c r="K5">
-        <v>13.4704260133897</v>
+        <v>14.1795940641787</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.99940490697095</v>
+        <v>12.52954954765722</v>
       </c>
       <c r="N5">
-        <v>19.99545339471487</v>
+        <v>13.28699340833215</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.194926051821601</v>
+        <v>6.000563715790132</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.901845273945303</v>
+        <v>4.780479016455713</v>
       </c>
       <c r="E6">
-        <v>12.84694164000367</v>
+        <v>7.857389957653739</v>
       </c>
       <c r="F6">
-        <v>37.79795780421536</v>
+        <v>26.77907825002415</v>
       </c>
       <c r="G6">
-        <v>43.16615489637577</v>
+        <v>33.56370615754194</v>
       </c>
       <c r="H6">
-        <v>17.87521166431017</v>
+        <v>11.40754342973126</v>
       </c>
       <c r="I6">
-        <v>21.72136379868042</v>
+        <v>14.3111968217425</v>
       </c>
       <c r="J6">
-        <v>10.07339922358669</v>
+        <v>5.863106250668397</v>
       </c>
       <c r="K6">
-        <v>13.45948507796738</v>
+        <v>14.12898874285149</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.99601569774345</v>
+        <v>12.5016417319554</v>
       </c>
       <c r="N6">
-        <v>19.99836646541931</v>
+        <v>13.29664436200219</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.225353520471842</v>
+        <v>6.113546384566358</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.903528895855934</v>
+        <v>4.820812300169888</v>
       </c>
       <c r="E7">
-        <v>12.84242892424647</v>
+        <v>7.889727223591499</v>
       </c>
       <c r="F7">
-        <v>37.79064054038624</v>
+        <v>26.96090099738004</v>
       </c>
       <c r="G7">
-        <v>43.1764704842333</v>
+        <v>33.87382679900675</v>
       </c>
       <c r="H7">
-        <v>17.86191252253711</v>
+        <v>11.42504496947636</v>
       </c>
       <c r="I7">
-        <v>21.6928309211218</v>
+        <v>14.23608490673316</v>
       </c>
       <c r="J7">
-        <v>10.06629413688191</v>
+        <v>5.855877807803185</v>
       </c>
       <c r="K7">
-        <v>13.53551772616615</v>
+        <v>14.47681775486861</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.01981898289102</v>
+        <v>12.69463692157797</v>
       </c>
       <c r="N7">
-        <v>19.97830884019794</v>
+        <v>13.22991374076337</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.359542565692582</v>
+        <v>6.586751718761867</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.913073986182567</v>
+        <v>4.998595810204074</v>
       </c>
       <c r="E8">
-        <v>12.82671458545462</v>
+        <v>8.039784369568054</v>
       </c>
       <c r="F8">
-        <v>37.77889172502474</v>
+        <v>27.80215608771806</v>
       </c>
       <c r="G8">
-        <v>43.25079479131792</v>
+        <v>35.28854202972687</v>
       </c>
       <c r="H8">
-        <v>17.81058263291044</v>
+        <v>11.5210312849187</v>
       </c>
       <c r="I8">
-        <v>21.57399642340144</v>
+        <v>13.91896105396875</v>
       </c>
       <c r="J8">
-        <v>10.03734958086465</v>
+        <v>5.829176830877919</v>
       </c>
       <c r="K8">
-        <v>13.87262693989371</v>
+        <v>15.92740244762911</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.13163490523961</v>
+        <v>13.52698664375323</v>
       </c>
       <c r="N8">
-        <v>19.89380416940566</v>
+        <v>12.94160537202725</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.619987556212911</v>
+        <v>7.42140889809291</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.939294618764425</v>
+        <v>5.343725026208022</v>
       </c>
       <c r="E9">
-        <v>12.81096251469837</v>
+        <v>8.359733879361087</v>
       </c>
       <c r="F9">
-        <v>37.82970938157337</v>
+        <v>29.58616397979491</v>
       </c>
       <c r="G9">
-        <v>43.49960583896998</v>
+        <v>38.2129670769633</v>
       </c>
       <c r="H9">
-        <v>17.73645294475263</v>
+        <v>11.78105069949535</v>
       </c>
       <c r="I9">
-        <v>21.36631919632111</v>
+        <v>13.35040769875441</v>
       </c>
       <c r="J9">
-        <v>9.989226621386663</v>
+        <v>5.796518318028824</v>
       </c>
       <c r="K9">
-        <v>14.53339623531386</v>
+        <v>18.47413756523618</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.37410541556003</v>
+        <v>15.07750572393631</v>
       </c>
       <c r="N9">
-        <v>19.74238758501389</v>
+        <v>12.39615765617488</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.807648926691398</v>
+        <v>7.976577649093181</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.963035624952786</v>
+        <v>5.592966940042362</v>
       </c>
       <c r="E10">
-        <v>12.80854087829081</v>
+        <v>8.609743324998377</v>
       </c>
       <c r="F10">
-        <v>37.91198963245863</v>
+        <v>30.97387552895531</v>
       </c>
       <c r="G10">
-        <v>43.74453142273373</v>
+        <v>40.44053294954931</v>
       </c>
       <c r="H10">
-        <v>17.69823589791529</v>
+        <v>12.01968494623065</v>
       </c>
       <c r="I10">
-        <v>21.22912884849794</v>
+        <v>12.96735389324576</v>
       </c>
       <c r="J10">
-        <v>9.959118107562185</v>
+        <v>5.785550972781628</v>
       </c>
       <c r="K10">
-        <v>15.01350207853104</v>
+        <v>20.16890308990692</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.56527227192494</v>
+        <v>16.32262011506189</v>
       </c>
       <c r="N10">
-        <v>19.63976182052728</v>
+        <v>12.00527976693627</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.891818367488371</v>
+        <v>8.21640554895774</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.974785246172286</v>
+        <v>5.70502655275939</v>
       </c>
       <c r="E11">
-        <v>12.80941736573726</v>
+        <v>8.72657714267511</v>
       </c>
       <c r="F11">
-        <v>37.95913226507827</v>
+        <v>31.62102981171932</v>
       </c>
       <c r="G11">
-        <v>43.8692214554391</v>
+        <v>41.46902497525703</v>
       </c>
       <c r="H11">
-        <v>17.68439084124353</v>
+        <v>12.13936907709972</v>
       </c>
       <c r="I11">
-        <v>21.17004525393207</v>
+        <v>12.80122388823163</v>
       </c>
       <c r="J11">
-        <v>9.946556580284485</v>
+        <v>5.783627407186795</v>
       </c>
       <c r="K11">
-        <v>15.22971847344746</v>
+        <v>20.90285173505286</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.65481106642963</v>
+        <v>16.91901405675784</v>
       </c>
       <c r="N11">
-        <v>19.59492597019015</v>
+        <v>11.82905025758913</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.923487653642112</v>
+        <v>8.305387868571577</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.97936895570904</v>
+        <v>5.747243461071458</v>
       </c>
       <c r="E12">
-        <v>12.81003272596484</v>
+        <v>8.771254059700141</v>
       </c>
       <c r="F12">
-        <v>37.97837393013333</v>
+        <v>31.86831871945764</v>
       </c>
       <c r="G12">
-        <v>43.91832257888874</v>
+        <v>41.86055057413805</v>
       </c>
       <c r="H12">
-        <v>17.67965795347401</v>
+        <v>12.18635356059116</v>
       </c>
       <c r="I12">
-        <v>21.14814903376196</v>
+        <v>12.73954530605628</v>
       </c>
       <c r="J12">
-        <v>9.94196277188683</v>
+        <v>5.783360782505388</v>
       </c>
       <c r="K12">
-        <v>15.31119893585976</v>
+        <v>21.17556614687433</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.68906485058046</v>
+        <v>17.14064646320257</v>
       </c>
       <c r="N12">
-        <v>19.57821218278128</v>
+        <v>11.76249491408718</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.916676653918078</v>
+        <v>8.28630561484267</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.978375831043184</v>
+        <v>5.738161368392173</v>
       </c>
       <c r="E13">
-        <v>12.80988760761771</v>
+        <v>8.761612929477565</v>
       </c>
       <c r="F13">
-        <v>37.97416820963778</v>
+        <v>31.81496233116571</v>
       </c>
       <c r="G13">
-        <v>43.90766442478684</v>
+        <v>41.77613842600481</v>
       </c>
       <c r="H13">
-        <v>17.68065457374274</v>
+        <v>12.17615966531724</v>
       </c>
       <c r="I13">
-        <v>21.15284355194398</v>
+        <v>12.75277301497444</v>
       </c>
       <c r="J13">
-        <v>9.942944886444028</v>
+        <v>5.783397319779558</v>
       </c>
       <c r="K13">
-        <v>15.29366952470171</v>
+        <v>21.11706244015154</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.68167260809834</v>
+        <v>17.09309971755385</v>
       </c>
       <c r="N13">
-        <v>19.58180004986155</v>
+        <v>11.7768216576063</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.894428077891669</v>
+        <v>8.223762981012889</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.975159670369248</v>
+        <v>5.708504268012881</v>
       </c>
       <c r="E14">
-        <v>12.80946231710077</v>
+        <v>8.730244092506586</v>
       </c>
       <c r="F14">
-        <v>37.96068748055092</v>
+        <v>31.64133006813248</v>
       </c>
       <c r="G14">
-        <v>43.87322343581175</v>
+        <v>41.50119530339887</v>
       </c>
       <c r="H14">
-        <v>17.68399123940044</v>
+        <v>12.14320083738062</v>
       </c>
       <c r="I14">
-        <v>21.16823427354134</v>
+        <v>12.79612447934107</v>
       </c>
       <c r="J14">
-        <v>9.946175380132138</v>
+        <v>5.783596092435815</v>
       </c>
       <c r="K14">
-        <v>15.23643030819007</v>
+        <v>20.92539201879823</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.65762231774092</v>
+        <v>16.93733172751126</v>
       </c>
       <c r="N14">
-        <v>19.5935456219038</v>
+        <v>11.82357141616847</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.880772732570686</v>
+        <v>8.185214688488665</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.973207113072226</v>
+        <v>5.690309348140467</v>
       </c>
       <c r="E15">
-        <v>12.80923869675411</v>
+        <v>8.711086039316445</v>
       </c>
       <c r="F15">
-        <v>37.95261090194971</v>
+        <v>31.53526378733881</v>
       </c>
       <c r="G15">
-        <v>43.85237185808627</v>
+        <v>41.33304991384748</v>
       </c>
       <c r="H15">
-        <v>17.68610147537609</v>
+        <v>12.12323099275489</v>
       </c>
       <c r="I15">
-        <v>21.17772369427112</v>
+        <v>12.82284089872977</v>
       </c>
       <c r="J15">
-        <v>9.948175367076962</v>
+        <v>5.783778627971207</v>
       </c>
       <c r="K15">
-        <v>15.20131571833896</v>
+        <v>20.80731233506193</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.64293536670354</v>
+        <v>16.84137386075809</v>
       </c>
       <c r="N15">
-        <v>19.60077454035132</v>
+        <v>11.85222878465025</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.802121400963552</v>
+        <v>7.96064774623138</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.962286685936967</v>
+        <v>5.585614532201378</v>
       </c>
       <c r="E16">
-        <v>12.8085233199758</v>
+        <v>8.602169360638861</v>
       </c>
       <c r="F16">
-        <v>37.90910364224008</v>
+        <v>30.93189658627122</v>
       </c>
       <c r="G16">
-        <v>43.73664766111004</v>
+        <v>40.37361212836613</v>
       </c>
       <c r="H16">
-        <v>17.69921201869165</v>
+        <v>12.01209257580324</v>
       </c>
       <c r="I16">
-        <v>21.23305694906855</v>
+        <v>12.97837950454246</v>
       </c>
       <c r="J16">
-        <v>9.95996185120765</v>
+        <v>5.785740133679446</v>
       </c>
       <c r="K16">
-        <v>14.99932075940225</v>
+        <v>20.12020199246333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.55947058096217</v>
+        <v>16.28305053368952</v>
       </c>
       <c r="N16">
-        <v>19.6427290443478</v>
+        <v>12.01682456066322</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.753541351680461</v>
+        <v>7.819619466974602</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.955829082018131</v>
+        <v>5.521028189291681</v>
       </c>
       <c r="E17">
-        <v>12.80859042972407</v>
+        <v>8.536138427508162</v>
       </c>
       <c r="F17">
-        <v>37.88489662215419</v>
+        <v>30.56576972331508</v>
       </c>
       <c r="G17">
-        <v>43.66903734439474</v>
+        <v>39.78880945973228</v>
       </c>
       <c r="H17">
-        <v>17.70816228227103</v>
+        <v>11.94680744874727</v>
       </c>
       <c r="I17">
-        <v>21.26785322538029</v>
+        <v>13.07591970094784</v>
       </c>
       <c r="J17">
-        <v>9.96748300386532</v>
+        <v>5.787743153640461</v>
       </c>
       <c r="K17">
-        <v>14.87478400267532</v>
+        <v>19.68927630195887</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.50891121601882</v>
+        <v>15.93294608275978</v>
       </c>
       <c r="N17">
-        <v>19.66893943242027</v>
+        <v>12.11817074548654</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.725488334951478</v>
+        <v>7.737306443346072</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.952204368605746</v>
+        <v>5.483756810085087</v>
       </c>
       <c r="E18">
-        <v>12.80881528511361</v>
+        <v>8.498451892995371</v>
       </c>
       <c r="F18">
-        <v>37.87188812543618</v>
+        <v>30.35668003245718</v>
       </c>
       <c r="G18">
-        <v>43.63140061640745</v>
+        <v>39.45387800346767</v>
       </c>
       <c r="H18">
-        <v>17.71364340238705</v>
+        <v>11.91030091186528</v>
       </c>
       <c r="I18">
-        <v>21.28818012417985</v>
+        <v>13.13278247096568</v>
       </c>
       <c r="J18">
-        <v>9.971915816641665</v>
+        <v>5.789182455945443</v>
       </c>
       <c r="K18">
-        <v>14.80295259455449</v>
+        <v>19.43792906853658</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.48007469465001</v>
+        <v>15.72875802172605</v>
       </c>
       <c r="N18">
-        <v>19.68418908133886</v>
+        <v>12.17661451066809</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.715971981567895</v>
+        <v>7.709231280503849</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.950992544559919</v>
+        <v>5.471117139843389</v>
       </c>
       <c r="E19">
-        <v>12.80892343517982</v>
+        <v>8.48574253977413</v>
       </c>
       <c r="F19">
-        <v>37.8676409655497</v>
+        <v>30.28614501248426</v>
       </c>
       <c r="G19">
-        <v>43.61887301805631</v>
+        <v>39.34072633637485</v>
       </c>
       <c r="H19">
-        <v>17.71555640771224</v>
+        <v>11.89811778440146</v>
       </c>
       <c r="I19">
-        <v>21.29511624223161</v>
+        <v>13.15216403746406</v>
       </c>
       <c r="J19">
-        <v>9.97343504888263</v>
+        <v>5.78971848957858</v>
       </c>
       <c r="K19">
-        <v>14.77859972364258</v>
+        <v>19.35222466463714</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.47035372447721</v>
+        <v>15.65913703992371</v>
       </c>
       <c r="N19">
-        <v>19.68938229748868</v>
+        <v>12.19643011069671</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.758724508962015</v>
+        <v>7.834756138616491</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.956507254509831</v>
+        <v>5.52791646102386</v>
       </c>
       <c r="E20">
-        <v>12.80856401584185</v>
+        <v>8.543137329351154</v>
       </c>
       <c r="F20">
-        <v>37.88737887375317</v>
+        <v>30.60459012210988</v>
       </c>
       <c r="G20">
-        <v>43.6761052796961</v>
+        <v>39.85091557707726</v>
       </c>
       <c r="H20">
-        <v>17.70717502320164</v>
+        <v>11.9536486862203</v>
       </c>
       <c r="I20">
-        <v>21.26411671291686</v>
+        <v>13.06545727462675</v>
       </c>
       <c r="J20">
-        <v>9.966671308037975</v>
+        <v>5.78750005470619</v>
       </c>
       <c r="K20">
-        <v>14.88806257754539</v>
+        <v>19.73550955320737</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.5142682702918</v>
+        <v>15.9705062632143</v>
       </c>
       <c r="N20">
-        <v>19.66613127999472</v>
+        <v>12.10736686709716</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.900968798086256</v>
+        <v>8.242183107187437</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.976100705541217</v>
+        <v>5.717221382854792</v>
       </c>
       <c r="E21">
-        <v>12.80957955093036</v>
+        <v>8.739446172964712</v>
       </c>
       <c r="F21">
-        <v>37.96460944236153</v>
+        <v>31.69227002302025</v>
       </c>
       <c r="G21">
-        <v>43.88328867974023</v>
+        <v>41.58189764220167</v>
       </c>
       <c r="H21">
-        <v>17.68299733411534</v>
+        <v>12.15283602012962</v>
       </c>
       <c r="I21">
-        <v>21.16370069272779</v>
+        <v>12.78335713273903</v>
       </c>
       <c r="J21">
-        <v>9.945222084803204</v>
+        <v>5.783525002117276</v>
       </c>
       <c r="K21">
-        <v>15.25325422923051</v>
+        <v>20.98183094973446</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.66467722950546</v>
+        <v>16.98319807595733</v>
       </c>
       <c r="N21">
-        <v>19.5900884926774</v>
+        <v>11.80983543014543</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.992732185901944</v>
+        <v>8.497762432735625</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.989688358177006</v>
+        <v>5.839664728037609</v>
       </c>
       <c r="E22">
-        <v>12.81189489691798</v>
+        <v>8.870273872084159</v>
       </c>
       <c r="F22">
-        <v>38.02318043763175</v>
+        <v>32.41609375386966</v>
       </c>
       <c r="G22">
-        <v>44.02966092552308</v>
+        <v>42.72516906532186</v>
       </c>
       <c r="H22">
-        <v>17.67016840219457</v>
+        <v>12.29273728033172</v>
       </c>
       <c r="I22">
-        <v>21.10085570478439</v>
+        <v>12.60620207940674</v>
       </c>
       <c r="J22">
-        <v>9.932153575845639</v>
+        <v>5.783629356394989</v>
       </c>
       <c r="K22">
-        <v>15.48958524599794</v>
+        <v>21.76602554038757</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.76499194475965</v>
+        <v>17.62056157896222</v>
       </c>
       <c r="N22">
-        <v>19.54193167859019</v>
+        <v>11.61639891046341</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.943876185100192</v>
+        <v>8.362334807409903</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.982365549831102</v>
+        <v>5.774439404992072</v>
       </c>
       <c r="E23">
-        <v>12.81050838902117</v>
+        <v>8.800220678176112</v>
       </c>
       <c r="F23">
-        <v>37.99118186903863</v>
+        <v>32.0286026575206</v>
       </c>
       <c r="G23">
-        <v>43.95054496363923</v>
+        <v>42.11391540069612</v>
       </c>
       <c r="H23">
-        <v>17.67674320365941</v>
+        <v>12.21715915301049</v>
       </c>
       <c r="I23">
-        <v>21.13414285449999</v>
+        <v>12.70006936236983</v>
       </c>
       <c r="J23">
-        <v>9.939041657917787</v>
+        <v>5.783319149687739</v>
       </c>
       <c r="K23">
-        <v>15.3636911136203</v>
+        <v>21.35022614478701</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.71127558762215</v>
+        <v>17.28259933101041</v>
       </c>
       <c r="N23">
-        <v>19.56749326084399</v>
+        <v>11.71956367472888</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.75638158644933</v>
+        <v>7.827916692464763</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.956200378937618</v>
+        <v>5.524802706772869</v>
       </c>
       <c r="E24">
-        <v>12.80857537727074</v>
+        <v>8.539972266697225</v>
       </c>
       <c r="F24">
-        <v>37.8862538174716</v>
+        <v>30.58703504972622</v>
       </c>
       <c r="G24">
-        <v>43.67290602240961</v>
+        <v>39.82283340650112</v>
       </c>
       <c r="H24">
-        <v>17.70762031799338</v>
+        <v>11.95055256937601</v>
       </c>
       <c r="I24">
-        <v>21.26580498693799</v>
+        <v>13.07018489520315</v>
       </c>
       <c r="J24">
-        <v>9.967037936790515</v>
+        <v>5.787609065061893</v>
       </c>
       <c r="K24">
-        <v>14.88206005506166</v>
+        <v>19.71461872863431</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.51184562557791</v>
+        <v>15.95353437096779</v>
       </c>
       <c r="N24">
-        <v>19.66740028192932</v>
+        <v>12.11225074092065</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.550035802011029</v>
+        <v>7.205746507826329</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.931407615515017</v>
+        <v>5.250973084045809</v>
       </c>
       <c r="E25">
-        <v>12.81361402385054</v>
+        <v>8.270502368347046</v>
       </c>
       <c r="F25">
-        <v>37.80805731783553</v>
+        <v>29.08968238492358</v>
       </c>
       <c r="G25">
-        <v>43.42132132872691</v>
+        <v>37.40714505908507</v>
       </c>
       <c r="H25">
-        <v>17.75365881997586</v>
+        <v>11.70261954698896</v>
       </c>
       <c r="I25">
-        <v>21.41979393563365</v>
+        <v>13.49830834287826</v>
       </c>
       <c r="J25">
-        <v>10.00132235010411</v>
+        <v>5.803142389447272</v>
       </c>
       <c r="K25">
-        <v>14.35521927587067</v>
+        <v>17.81654194348046</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.30613904213309</v>
+        <v>14.66774360969573</v>
       </c>
       <c r="N25">
-        <v>19.78182914108059</v>
+        <v>12.54180866466566</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.708712348065885</v>
+        <v>24.03951969628692</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.046618336726243</v>
+        <v>6.033631810605799</v>
       </c>
       <c r="E2">
-        <v>8.082206535868343</v>
+        <v>12.45719518852099</v>
       </c>
       <c r="F2">
-        <v>28.03936926936006</v>
+        <v>54.4911475738748</v>
       </c>
       <c r="G2">
-        <v>35.68253702947764</v>
+        <v>81.44782168362232</v>
       </c>
       <c r="H2">
-        <v>11.5517499823193</v>
+        <v>4.511744599912865</v>
       </c>
       <c r="I2">
-        <v>13.83657824309575</v>
+        <v>3.005390845382122</v>
       </c>
       <c r="J2">
-        <v>5.823239649419437</v>
+        <v>20.88633083654351</v>
       </c>
       <c r="K2">
-        <v>16.30009679144073</v>
+        <v>70.04831980844861</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.257633889657152</v>
       </c>
       <c r="M2">
-        <v>13.74735088594463</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.86491578757239</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.347957049477126</v>
+        <v>22.47103589359181</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.907138406567453</v>
+        <v>5.841119063564467</v>
       </c>
       <c r="E3">
-        <v>7.96114085012076</v>
+        <v>11.86258063453534</v>
       </c>
       <c r="F3">
-        <v>27.36172407465632</v>
+        <v>51.11053819783628</v>
       </c>
       <c r="G3">
-        <v>34.55161897462254</v>
+        <v>76.01586540133086</v>
       </c>
       <c r="H3">
-        <v>11.46800032169049</v>
+        <v>3.982746675156862</v>
       </c>
       <c r="I3">
-        <v>14.07950057125107</v>
+        <v>3.192510874708861</v>
       </c>
       <c r="J3">
-        <v>5.841926946952799</v>
+        <v>19.70756362132347</v>
       </c>
       <c r="K3">
-        <v>15.19646339973406</v>
+        <v>65.44940052185392</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.856917413798573</v>
       </c>
       <c r="M3">
-        <v>13.10228609866157</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.08890384576214</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.114854675021758</v>
+        <v>21.44996014040526</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.82128428181997</v>
+        <v>5.721915120191126</v>
       </c>
       <c r="E4">
-        <v>7.890109667053262</v>
+        <v>11.48825865609368</v>
       </c>
       <c r="F4">
-        <v>26.96305006911716</v>
+        <v>48.95542313507371</v>
       </c>
       <c r="G4">
-        <v>33.87748164469186</v>
+        <v>72.53811391479988</v>
       </c>
       <c r="H4">
-        <v>11.425259804723</v>
+        <v>3.651753795506087</v>
       </c>
       <c r="I4">
-        <v>14.23521377528163</v>
+        <v>3.308238040789099</v>
       </c>
       <c r="J4">
-        <v>5.855796023462187</v>
+        <v>18.96159935765113</v>
       </c>
       <c r="K4">
-        <v>14.48084141394686</v>
+        <v>62.55294165479136</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.604290850449061</v>
       </c>
       <c r="M4">
-        <v>12.69688534708699</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.22913638038047</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.016986961768675</v>
+        <v>21.0191248006034</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.786289122744435</v>
+        <v>5.673005681100577</v>
       </c>
       <c r="E5">
-        <v>7.862005511498774</v>
+        <v>11.33330890265687</v>
       </c>
       <c r="F5">
-        <v>26.80504376428625</v>
+        <v>48.05736654824945</v>
       </c>
       <c r="G5">
-        <v>33.60810600150187</v>
+        <v>71.0849111366813</v>
       </c>
       <c r="H5">
-        <v>11.40995844213753</v>
+        <v>3.515154892271931</v>
       </c>
       <c r="I5">
-        <v>14.30029297640942</v>
+        <v>3.357057364133082</v>
       </c>
       <c r="J5">
-        <v>5.862035187258365</v>
+        <v>18.65216225538267</v>
       </c>
       <c r="K5">
-        <v>14.1795940641787</v>
+        <v>61.41579519922216</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.499659779930759</v>
       </c>
       <c r="M5">
-        <v>12.52954954765722</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.28699340833215</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.000563715790132</v>
+        <v>20.94660719316666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.780479016455713</v>
+        <v>5.664861982854593</v>
       </c>
       <c r="E6">
-        <v>7.857389957653739</v>
+        <v>11.30743178457634</v>
       </c>
       <c r="F6">
-        <v>26.77907825002415</v>
+        <v>47.90705444377838</v>
       </c>
       <c r="G6">
-        <v>33.56370615754194</v>
+        <v>70.84143357964595</v>
       </c>
       <c r="H6">
-        <v>11.40754342973126</v>
+        <v>3.492364635229798</v>
       </c>
       <c r="I6">
-        <v>14.3111968217425</v>
+        <v>3.367086934272987</v>
       </c>
       <c r="J6">
-        <v>5.863106250668397</v>
+        <v>18.60045636338047</v>
       </c>
       <c r="K6">
-        <v>14.12898874285149</v>
+        <v>61.31282198545149</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.482183624109721</v>
       </c>
       <c r="M6">
-        <v>12.5016417319554</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.29664436200219</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.113546384566358</v>
+        <v>21.44400016915299</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.820812300169888</v>
+        <v>5.721256959551519</v>
       </c>
       <c r="E7">
-        <v>7.889727223591499</v>
+        <v>11.48617881387128</v>
       </c>
       <c r="F7">
-        <v>26.96090099738004</v>
+        <v>48.94339162029983</v>
       </c>
       <c r="G7">
-        <v>33.87382679900675</v>
+        <v>72.51866129784933</v>
       </c>
       <c r="H7">
-        <v>11.42504496947636</v>
+        <v>3.649918727834672</v>
       </c>
       <c r="I7">
-        <v>14.23608490673316</v>
+        <v>3.31378638727711</v>
       </c>
       <c r="J7">
-        <v>5.855877807803185</v>
+        <v>18.95744802908809</v>
       </c>
       <c r="K7">
-        <v>14.47681775486861</v>
+        <v>62.77205030764391</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.602886603490225</v>
       </c>
       <c r="M7">
-        <v>12.69463692157797</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.22991374076337</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.586751718761867</v>
+        <v>23.51060482620635</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.998595810204074</v>
+        <v>5.9674093012529</v>
       </c>
       <c r="E8">
-        <v>8.039784369568054</v>
+        <v>12.25402563059921</v>
       </c>
       <c r="F8">
-        <v>27.80215608771806</v>
+        <v>53.3420276468069</v>
       </c>
       <c r="G8">
-        <v>35.28854202972687</v>
+        <v>79.60430402229545</v>
       </c>
       <c r="H8">
-        <v>11.5210312849187</v>
+        <v>4.330528202096133</v>
       </c>
       <c r="I8">
-        <v>13.91896105396875</v>
+        <v>3.075717945874242</v>
       </c>
       <c r="J8">
-        <v>5.829176830877919</v>
+        <v>20.48455693469681</v>
       </c>
       <c r="K8">
-        <v>15.92740244762911</v>
+        <v>68.7835940212962</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.120812432148414</v>
       </c>
       <c r="M8">
-        <v>13.52698664375323</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.94160537202725</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.42140889809291</v>
+        <v>27.11809087932017</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.343725026208022</v>
+        <v>6.446365405416437</v>
       </c>
       <c r="E9">
-        <v>8.359733879361087</v>
+        <v>13.69190952925943</v>
       </c>
       <c r="F9">
-        <v>29.58616397979491</v>
+        <v>61.33997749601057</v>
       </c>
       <c r="G9">
-        <v>38.2129670769633</v>
+        <v>92.38621881127148</v>
       </c>
       <c r="H9">
-        <v>11.78105069949535</v>
+        <v>5.624286674011951</v>
       </c>
       <c r="I9">
-        <v>13.35040769875441</v>
+        <v>2.607337829566171</v>
       </c>
       <c r="J9">
-        <v>5.796518318028824</v>
+        <v>23.30079149466325</v>
       </c>
       <c r="K9">
-        <v>18.47413756523618</v>
+        <v>79.22058890757553</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.08627410922791</v>
       </c>
       <c r="M9">
-        <v>15.07750572393631</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.39615765617488</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.976577649093181</v>
+        <v>29.52590840198576</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.592966940042362</v>
+        <v>6.803144164709848</v>
       </c>
       <c r="E10">
-        <v>8.609743324998377</v>
+        <v>14.54521561995036</v>
       </c>
       <c r="F10">
-        <v>30.97387552895531</v>
+        <v>66.43733884443401</v>
       </c>
       <c r="G10">
-        <v>40.44053294954931</v>
+        <v>100.5713312543335</v>
       </c>
       <c r="H10">
-        <v>12.01968494623065</v>
+        <v>6.520486226551777</v>
       </c>
       <c r="I10">
-        <v>12.96735389324576</v>
+        <v>2.694300863279532</v>
       </c>
       <c r="J10">
-        <v>5.785550972781628</v>
+        <v>25.14283281360646</v>
       </c>
       <c r="K10">
-        <v>20.16890308990692</v>
+        <v>86.33114078562366</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.64703567571088</v>
       </c>
       <c r="M10">
-        <v>16.32262011506189</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.00527976693627</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.21640554895774</v>
+        <v>30.56501963939837</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.70502655275939</v>
+        <v>6.996232264592129</v>
       </c>
       <c r="E11">
-        <v>8.72657714267511</v>
+        <v>13.55988446741433</v>
       </c>
       <c r="F11">
-        <v>31.62102981171932</v>
+        <v>65.15385032275182</v>
       </c>
       <c r="G11">
-        <v>41.46902497525703</v>
+        <v>99.31727089358392</v>
       </c>
       <c r="H11">
-        <v>12.13936907709972</v>
+        <v>6.887005616153343</v>
       </c>
       <c r="I11">
-        <v>12.80122388823163</v>
+        <v>2.863409948912087</v>
       </c>
       <c r="J11">
-        <v>5.783627407186795</v>
+        <v>24.82757192770723</v>
       </c>
       <c r="K11">
-        <v>20.90285173505286</v>
+        <v>89.71136125584906</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.892391561730566</v>
       </c>
       <c r="M11">
-        <v>16.91901405675784</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.82905025758913</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.305387868571577</v>
+        <v>30.94890444533588</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.747243461071458</v>
+        <v>7.116122087987795</v>
       </c>
       <c r="E12">
-        <v>8.771254059700141</v>
+        <v>12.70425112938596</v>
       </c>
       <c r="F12">
-        <v>31.86831871945764</v>
+        <v>62.98091797081742</v>
       </c>
       <c r="G12">
-        <v>41.86055057413805</v>
+        <v>96.53189335517438</v>
       </c>
       <c r="H12">
-        <v>12.18635356059116</v>
+        <v>7.421667246624213</v>
       </c>
       <c r="I12">
-        <v>12.73954530605628</v>
+        <v>2.92060248378566</v>
       </c>
       <c r="J12">
-        <v>5.783360782505388</v>
+        <v>24.12937536672609</v>
       </c>
       <c r="K12">
-        <v>21.17556614687433</v>
+        <v>90.81436820082327</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.205027967560721</v>
       </c>
       <c r="M12">
-        <v>17.14064646320257</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.76249491408718</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.28630561484267</v>
+        <v>30.86632728123281</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.738161368392173</v>
+        <v>7.184401081924623</v>
       </c>
       <c r="E13">
-        <v>8.761612929477565</v>
+        <v>11.91032197587438</v>
       </c>
       <c r="F13">
-        <v>31.81496233116571</v>
+        <v>59.93278112609898</v>
       </c>
       <c r="G13">
-        <v>41.77613842600481</v>
+        <v>92.30619036836748</v>
       </c>
       <c r="H13">
-        <v>12.17615966531724</v>
+        <v>8.072633002275328</v>
       </c>
       <c r="I13">
-        <v>12.75277301497444</v>
+        <v>2.906780731808312</v>
       </c>
       <c r="J13">
-        <v>5.783397319779558</v>
+        <v>23.07715132051932</v>
       </c>
       <c r="K13">
-        <v>21.11706244015154</v>
+        <v>90.54689708968277</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.533694455911853</v>
       </c>
       <c r="M13">
-        <v>17.09309971755385</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.7768216576063</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.223762981012889</v>
+        <v>30.59665531019514</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.708504268012881</v>
+        <v>7.212970669960829</v>
       </c>
       <c r="E14">
-        <v>8.730244092506586</v>
+        <v>11.42401269197021</v>
       </c>
       <c r="F14">
-        <v>31.64133006813248</v>
+        <v>57.36910106065424</v>
       </c>
       <c r="G14">
-        <v>41.50119530339887</v>
+        <v>88.64789497099522</v>
       </c>
       <c r="H14">
-        <v>12.14320083738062</v>
+        <v>8.607103601552485</v>
       </c>
       <c r="I14">
-        <v>12.79612447934107</v>
+        <v>2.8674654234577</v>
       </c>
       <c r="J14">
-        <v>5.783596092435815</v>
+        <v>22.21618242857574</v>
       </c>
       <c r="K14">
-        <v>20.92539201879823</v>
+        <v>89.78932321383581</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.091903831612409</v>
       </c>
       <c r="M14">
-        <v>16.93733172751126</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.82357141616847</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.185214688488665</v>
+        <v>30.43091025861324</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.690309348140467</v>
+        <v>7.204975768881535</v>
       </c>
       <c r="E15">
-        <v>8.711086039316445</v>
+        <v>11.29734728574224</v>
       </c>
       <c r="F15">
-        <v>31.53526378733881</v>
+        <v>56.55286174579324</v>
       </c>
       <c r="G15">
-        <v>41.33304991384748</v>
+        <v>87.44203037921923</v>
       </c>
       <c r="H15">
-        <v>12.12323099275489</v>
+        <v>8.717235684883812</v>
       </c>
       <c r="I15">
-        <v>12.82284089872977</v>
+        <v>2.846492030909862</v>
       </c>
       <c r="J15">
-        <v>5.783778627971207</v>
+        <v>21.93727745001041</v>
       </c>
       <c r="K15">
-        <v>20.80731233506193</v>
+        <v>89.38425024055276</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.978845406781822</v>
       </c>
       <c r="M15">
-        <v>16.84137386075809</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.85222878465025</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.96064774623138</v>
+        <v>29.46102307622637</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.585614532201378</v>
+        <v>7.038077634112515</v>
       </c>
       <c r="E16">
-        <v>8.602169360638861</v>
+        <v>11.05543647810768</v>
       </c>
       <c r="F16">
-        <v>30.93189658627122</v>
+        <v>54.85009154271336</v>
       </c>
       <c r="G16">
-        <v>40.37361212836613</v>
+        <v>84.60447147099531</v>
       </c>
       <c r="H16">
-        <v>12.01209257580324</v>
+        <v>8.310732539401695</v>
       </c>
       <c r="I16">
-        <v>12.97837950454246</v>
+        <v>2.708061172222662</v>
       </c>
       <c r="J16">
-        <v>5.785740133679446</v>
+        <v>21.31863842690873</v>
       </c>
       <c r="K16">
-        <v>20.12020199246333</v>
+        <v>86.6367325381926</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.853518331201857</v>
       </c>
       <c r="M16">
-        <v>16.28305053368952</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.01682456066322</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.819619466974602</v>
+        <v>28.85101104749149</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.521028189291681</v>
+        <v>6.890994567476009</v>
       </c>
       <c r="E17">
-        <v>8.536138427508162</v>
+        <v>11.10873582994195</v>
       </c>
       <c r="F17">
-        <v>30.56576972331508</v>
+        <v>54.95212734423317</v>
       </c>
       <c r="G17">
-        <v>39.78880945973228</v>
+        <v>84.42989024679642</v>
       </c>
       <c r="H17">
-        <v>11.94680744874727</v>
+        <v>7.652876284719833</v>
       </c>
       <c r="I17">
-        <v>13.07591970094784</v>
+        <v>2.623905086322586</v>
       </c>
       <c r="J17">
-        <v>5.787743153640461</v>
+        <v>21.31571138412265</v>
       </c>
       <c r="K17">
-        <v>19.68927630195887</v>
+        <v>84.9163859910049</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.983629020475886</v>
       </c>
       <c r="M17">
-        <v>15.93294608275978</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.11817074548654</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.737306443346072</v>
+        <v>28.49337206267156</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.483756810085087</v>
+        <v>6.758068310867641</v>
       </c>
       <c r="E18">
-        <v>8.498451892995371</v>
+        <v>11.54498188092325</v>
       </c>
       <c r="F18">
-        <v>30.35668003245718</v>
+        <v>56.62949623767418</v>
       </c>
       <c r="G18">
-        <v>39.45387800346767</v>
+        <v>86.55420101420619</v>
       </c>
       <c r="H18">
-        <v>11.91030091186528</v>
+        <v>6.813776612364496</v>
       </c>
       <c r="I18">
-        <v>13.13278247096568</v>
+        <v>2.567073126085469</v>
       </c>
       <c r="J18">
-        <v>5.789182455945443</v>
+        <v>21.84404526454936</v>
       </c>
       <c r="K18">
-        <v>19.43792906853658</v>
+        <v>83.74900462306307</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.408802809621074</v>
       </c>
       <c r="M18">
-        <v>15.72875802172605</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.17661451066809</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.709231280503849</v>
+        <v>28.37226976796863</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.471117139843389</v>
+        <v>6.669568905450577</v>
       </c>
       <c r="E19">
-        <v>8.48574253977413</v>
+        <v>12.41337630932516</v>
       </c>
       <c r="F19">
-        <v>30.28614501248426</v>
+        <v>59.41971075806374</v>
       </c>
       <c r="G19">
-        <v>39.34072633637485</v>
+        <v>90.33508203544218</v>
       </c>
       <c r="H19">
-        <v>11.89811778440146</v>
+        <v>6.159344924407941</v>
       </c>
       <c r="I19">
-        <v>13.15216403746406</v>
+        <v>2.554485117098969</v>
       </c>
       <c r="J19">
-        <v>5.78971848957858</v>
+        <v>22.75062664998802</v>
       </c>
       <c r="K19">
-        <v>19.35222466463714</v>
+        <v>83.47852690970771</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.11303709625612</v>
       </c>
       <c r="M19">
-        <v>15.65913703992371</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.19643011069671</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.834756138616491</v>
+        <v>28.91642397048737</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.52791646102386</v>
+        <v>6.708755731282187</v>
       </c>
       <c r="E20">
-        <v>8.543137329351154</v>
+        <v>14.31405374284886</v>
       </c>
       <c r="F20">
-        <v>30.60459012210988</v>
+        <v>65.10134093068342</v>
       </c>
       <c r="G20">
-        <v>39.85091557707726</v>
+        <v>98.43318866966999</v>
       </c>
       <c r="H20">
-        <v>11.9536486862203</v>
+        <v>6.282975095038509</v>
       </c>
       <c r="I20">
-        <v>13.06545727462675</v>
+        <v>2.632150952014063</v>
       </c>
       <c r="J20">
-        <v>5.78750005470619</v>
+        <v>24.64828222076785</v>
       </c>
       <c r="K20">
-        <v>19.73550955320737</v>
+        <v>85.08804631142094</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.49527877753497</v>
       </c>
       <c r="M20">
-        <v>15.9705062632143</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.10736686709716</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.242183107187437</v>
+        <v>30.677596814857</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.717221382854792</v>
+        <v>6.985915161551999</v>
       </c>
       <c r="E21">
-        <v>8.739446172964712</v>
+        <v>15.2289163793887</v>
       </c>
       <c r="F21">
-        <v>31.69227002302025</v>
+        <v>69.54391405210025</v>
       </c>
       <c r="G21">
-        <v>41.58189764220167</v>
+        <v>105.4282540388842</v>
       </c>
       <c r="H21">
-        <v>12.15283602012962</v>
+        <v>7.037636624092334</v>
       </c>
       <c r="I21">
-        <v>12.78335713273903</v>
+        <v>2.887686022020271</v>
       </c>
       <c r="J21">
-        <v>5.783525002117276</v>
+        <v>26.35274133423468</v>
       </c>
       <c r="K21">
-        <v>20.98183094973446</v>
+        <v>90.18568523955392</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.10877520090679</v>
       </c>
       <c r="M21">
-        <v>16.98319807595733</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.80983543014543</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.497762432735625</v>
+        <v>31.77799867576357</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.839664728037609</v>
+        <v>7.170827225695469</v>
       </c>
       <c r="E22">
-        <v>8.870273872084159</v>
+        <v>15.73707752937606</v>
       </c>
       <c r="F22">
-        <v>32.41609375386966</v>
+        <v>72.17892970731036</v>
       </c>
       <c r="G22">
-        <v>42.72516906532186</v>
+        <v>109.6295163460942</v>
       </c>
       <c r="H22">
-        <v>12.29273728033172</v>
+        <v>7.511906727044748</v>
       </c>
       <c r="I22">
-        <v>12.60620207940674</v>
+        <v>3.046085171047987</v>
       </c>
       <c r="J22">
-        <v>5.783629356394989</v>
+        <v>27.39563108011148</v>
       </c>
       <c r="K22">
-        <v>21.76602554038757</v>
+        <v>93.18425791351027</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.44417313170417</v>
       </c>
       <c r="M22">
-        <v>17.62056157896222</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.61639891046341</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.362334807409903</v>
+        <v>31.19327424365965</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.774439404992072</v>
+        <v>7.071736274683621</v>
       </c>
       <c r="E23">
-        <v>8.800220678176112</v>
+        <v>15.46589243627441</v>
       </c>
       <c r="F23">
-        <v>32.0286026575206</v>
+        <v>70.77746641780514</v>
       </c>
       <c r="G23">
-        <v>42.11391540069612</v>
+        <v>107.3957689936459</v>
       </c>
       <c r="H23">
-        <v>12.21715915301049</v>
+        <v>7.258380688502973</v>
       </c>
       <c r="I23">
-        <v>12.70006936236983</v>
+        <v>2.951330104130963</v>
       </c>
       <c r="J23">
-        <v>5.783319149687739</v>
+        <v>26.84109818239779</v>
       </c>
       <c r="K23">
-        <v>21.35022614478701</v>
+        <v>91.38712135191025</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.26536200326099</v>
       </c>
       <c r="M23">
-        <v>17.28259933101041</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.71956367472888</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.827916692464763</v>
+        <v>28.88424622251223</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.524802706772869</v>
+        <v>6.703990601407073</v>
       </c>
       <c r="E24">
-        <v>8.539972266697225</v>
+        <v>14.43621713443281</v>
       </c>
       <c r="F24">
-        <v>30.58703504972622</v>
+        <v>65.35700783305946</v>
       </c>
       <c r="G24">
-        <v>39.82283340650112</v>
+        <v>98.77190545384754</v>
       </c>
       <c r="H24">
-        <v>11.95055256937601</v>
+        <v>6.304721781174123</v>
       </c>
       <c r="I24">
-        <v>13.07018489520315</v>
+        <v>2.611260814615867</v>
       </c>
       <c r="J24">
-        <v>5.787609065061893</v>
+        <v>24.7302024475828</v>
       </c>
       <c r="K24">
-        <v>19.71461872863431</v>
+        <v>84.66516338006231</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.58284651513451</v>
       </c>
       <c r="M24">
-        <v>15.95353437096779</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.11225074092065</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.205746507826329</v>
+        <v>26.18238885005402</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.250973084045809</v>
+        <v>6.316554693561356</v>
       </c>
       <c r="E25">
-        <v>8.270502368347046</v>
+        <v>13.309323526669</v>
       </c>
       <c r="F25">
-        <v>29.08968238492358</v>
+        <v>59.24257166205852</v>
       </c>
       <c r="G25">
-        <v>37.40714505908507</v>
+        <v>89.04421273818133</v>
       </c>
       <c r="H25">
-        <v>11.70261954698896</v>
+        <v>5.277429829038588</v>
       </c>
       <c r="I25">
-        <v>13.49830834287826</v>
+        <v>2.742911760467152</v>
       </c>
       <c r="J25">
-        <v>5.803142389447272</v>
+        <v>22.55808353080973</v>
       </c>
       <c r="K25">
-        <v>17.81654194348046</v>
+        <v>76.87445421873976</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.83010498325384</v>
       </c>
       <c r="M25">
-        <v>14.66774360969573</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.54180866466566</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03951969628692</v>
+        <v>24.04110093463252</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.033631810605799</v>
+        <v>5.715663655767202</v>
       </c>
       <c r="E2">
-        <v>12.45719518852099</v>
+        <v>12.14656782243397</v>
       </c>
       <c r="F2">
-        <v>54.4911475738748</v>
+        <v>54.44687070513162</v>
       </c>
       <c r="G2">
-        <v>81.44782168362232</v>
+        <v>81.07700073456411</v>
       </c>
       <c r="H2">
-        <v>4.511744599912865</v>
+        <v>4.265748801734193</v>
       </c>
       <c r="I2">
-        <v>3.005390845382122</v>
+        <v>3.102319254819517</v>
       </c>
       <c r="J2">
-        <v>20.88633083654351</v>
+        <v>21.40297770224928</v>
       </c>
       <c r="K2">
-        <v>70.04831980844861</v>
+        <v>40.26914433335583</v>
       </c>
       <c r="L2">
-        <v>9.257633889657152</v>
+        <v>29.59801017355548</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>30.71468139066202</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.142297129928128</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47103589359181</v>
+        <v>22.47195615808963</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.841119063564467</v>
+        <v>5.558741438617997</v>
       </c>
       <c r="E3">
-        <v>11.86258063453534</v>
+        <v>11.58531412678838</v>
       </c>
       <c r="F3">
-        <v>51.11053819783628</v>
+        <v>51.11450593136841</v>
       </c>
       <c r="G3">
-        <v>76.01586540133086</v>
+        <v>75.66181761314327</v>
       </c>
       <c r="H3">
-        <v>3.982746675156862</v>
+        <v>3.766360533428353</v>
       </c>
       <c r="I3">
-        <v>3.192510874708861</v>
+        <v>3.215684869259357</v>
       </c>
       <c r="J3">
-        <v>19.70756362132347</v>
+        <v>20.24667442915821</v>
       </c>
       <c r="K3">
-        <v>65.44940052185392</v>
+        <v>37.68607595734141</v>
       </c>
       <c r="L3">
-        <v>8.856917413798573</v>
+        <v>27.31880880382043</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>29.0688017934621</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.754974675768041</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44996014040526</v>
+        <v>21.44831036159348</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.721915120191126</v>
+        <v>5.461482822389568</v>
       </c>
       <c r="E4">
-        <v>11.48825865609368</v>
+        <v>11.23150092832313</v>
       </c>
       <c r="F4">
-        <v>48.95542313507371</v>
+        <v>48.98595374470688</v>
       </c>
       <c r="G4">
-        <v>72.53811391479988</v>
+        <v>72.19422270026921</v>
       </c>
       <c r="H4">
-        <v>3.651753795506087</v>
+        <v>3.453342865256019</v>
       </c>
       <c r="I4">
-        <v>3.308238040789099</v>
+        <v>3.286613502937306</v>
       </c>
       <c r="J4">
-        <v>18.96159935765113</v>
+        <v>19.50934983338148</v>
       </c>
       <c r="K4">
-        <v>62.55294165479136</v>
+        <v>36.03380553955514</v>
       </c>
       <c r="L4">
-        <v>8.604290850449061</v>
+        <v>25.85993366964777</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>28.01808332727096</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.510467813199586</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0191248006034</v>
+        <v>21.01595753288554</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.673005681100577</v>
+        <v>5.421557695885563</v>
       </c>
       <c r="E5">
-        <v>11.33330890265687</v>
+        <v>11.08494197034721</v>
       </c>
       <c r="F5">
-        <v>48.05736654824945</v>
+        <v>48.09801957548904</v>
       </c>
       <c r="G5">
-        <v>71.0849111366813</v>
+        <v>70.74519158902733</v>
       </c>
       <c r="H5">
-        <v>3.515154892271931</v>
+        <v>3.324041828642246</v>
       </c>
       <c r="I5">
-        <v>3.357057364133082</v>
+        <v>3.318444430511923</v>
       </c>
       <c r="J5">
-        <v>18.65216225538267</v>
+        <v>19.2021690270492</v>
       </c>
       <c r="K5">
-        <v>61.41579519922216</v>
+        <v>35.38695166432476</v>
       </c>
       <c r="L5">
-        <v>8.499659779930759</v>
+        <v>25.28252613137009</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>27.61265428388707</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.409132960066254</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94660719316666</v>
+        <v>20.94323187709646</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.664861982854593</v>
+        <v>5.414908827081398</v>
       </c>
       <c r="E6">
-        <v>11.30743178457634</v>
+        <v>11.06046087939635</v>
       </c>
       <c r="F6">
-        <v>47.90705444377838</v>
+        <v>47.94934761796129</v>
       </c>
       <c r="G6">
-        <v>70.84143357964595</v>
+        <v>70.50241064044125</v>
       </c>
       <c r="H6">
-        <v>3.492364635229798</v>
+        <v>3.302462391506269</v>
       </c>
       <c r="I6">
-        <v>3.367086934272987</v>
+        <v>3.327116966868132</v>
       </c>
       <c r="J6">
-        <v>18.60045636338047</v>
+        <v>19.15076210378362</v>
       </c>
       <c r="K6">
-        <v>61.31282198545149</v>
+        <v>35.33068066718524</v>
       </c>
       <c r="L6">
-        <v>8.482183624109721</v>
+        <v>25.22414545557973</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>27.5846687908634</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.392203743473429</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44400016915299</v>
+        <v>21.44250429110938</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.721256959551519</v>
+        <v>5.460845522801701</v>
       </c>
       <c r="E7">
-        <v>11.48617881387128</v>
+        <v>11.23120706364614</v>
       </c>
       <c r="F7">
-        <v>48.94339162029983</v>
+        <v>48.92081535109391</v>
       </c>
       <c r="G7">
-        <v>72.51866129784933</v>
+        <v>72.22574423576084</v>
       </c>
       <c r="H7">
-        <v>3.649918727834672</v>
+        <v>3.449662711903716</v>
       </c>
       <c r="I7">
-        <v>3.31378638727711</v>
+        <v>3.295833493059101</v>
       </c>
       <c r="J7">
-        <v>18.95744802908809</v>
+        <v>19.41368972367466</v>
       </c>
       <c r="K7">
-        <v>62.77205030764391</v>
+        <v>36.16451624352388</v>
       </c>
       <c r="L7">
-        <v>8.602886603490225</v>
+        <v>25.95491388301225</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>28.11935055606657</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.50711066966244</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51060482620635</v>
+        <v>23.51248066458468</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.9674093012529</v>
+        <v>5.661573699426022</v>
       </c>
       <c r="E8">
-        <v>12.25402563059921</v>
+        <v>11.96031919186601</v>
       </c>
       <c r="F8">
-        <v>53.3420276468069</v>
+        <v>53.15031559048734</v>
       </c>
       <c r="G8">
-        <v>79.60430402229545</v>
+        <v>79.3949929741989</v>
       </c>
       <c r="H8">
-        <v>4.330528202096133</v>
+        <v>4.088617993967042</v>
       </c>
       <c r="I8">
-        <v>3.075717945874242</v>
+        <v>3.152079809021664</v>
       </c>
       <c r="J8">
-        <v>20.48455693469681</v>
+        <v>20.72426774348355</v>
       </c>
       <c r="K8">
-        <v>68.7835940212962</v>
+        <v>39.564506436028</v>
       </c>
       <c r="L8">
-        <v>9.120812432148414</v>
+        <v>28.95204751095711</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>30.28690385352529</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.003808272563369</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.11809087932017</v>
+        <v>27.09717337379039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.446365405416437</v>
+        <v>6.05148460919423</v>
       </c>
       <c r="E9">
-        <v>13.69190952925943</v>
+        <v>13.31465465878874</v>
       </c>
       <c r="F9">
-        <v>61.33997749601057</v>
+        <v>60.98444945718878</v>
       </c>
       <c r="G9">
-        <v>92.38621881127148</v>
+        <v>92.14855396950497</v>
       </c>
       <c r="H9">
-        <v>5.624286674011951</v>
+        <v>5.304741825519683</v>
       </c>
       <c r="I9">
-        <v>2.607337829566171</v>
+        <v>2.866600236732948</v>
       </c>
       <c r="J9">
-        <v>23.30079149466325</v>
+        <v>23.41033862740595</v>
       </c>
       <c r="K9">
-        <v>79.22058890757553</v>
+        <v>45.46289011891677</v>
       </c>
       <c r="L9">
-        <v>10.08627410922791</v>
+        <v>34.16781471431414</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>34.04057586572385</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.933363207282349</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.52590840198576</v>
+        <v>29.44576208428606</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.803144164709848</v>
+        <v>6.343477018412838</v>
       </c>
       <c r="E10">
-        <v>14.54521561995036</v>
+        <v>14.11066306781769</v>
       </c>
       <c r="F10">
-        <v>66.43733884443401</v>
+        <v>65.70277549271793</v>
       </c>
       <c r="G10">
-        <v>100.5713312543335</v>
+        <v>100.5511343845892</v>
       </c>
       <c r="H10">
-        <v>6.520486226551777</v>
+        <v>6.13262301757256</v>
       </c>
       <c r="I10">
-        <v>2.694300863279532</v>
+        <v>2.668270858387296</v>
       </c>
       <c r="J10">
-        <v>25.14283281360646</v>
+        <v>24.68996166618309</v>
       </c>
       <c r="K10">
-        <v>86.33114078562366</v>
+        <v>49.50431524872958</v>
       </c>
       <c r="L10">
-        <v>10.64703567571088</v>
+        <v>37.71882263528222</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>36.63706263650946</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.45633165516069</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.56501963939837</v>
+        <v>30.4533652912351</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.996232264592129</v>
+        <v>6.511961060435762</v>
       </c>
       <c r="E11">
-        <v>13.55988446741433</v>
+        <v>13.09623549361401</v>
       </c>
       <c r="F11">
-        <v>65.15385032275182</v>
+        <v>63.88954594772432</v>
       </c>
       <c r="G11">
-        <v>99.31727089358392</v>
+        <v>99.81202177666995</v>
       </c>
       <c r="H11">
-        <v>6.887005616153343</v>
+        <v>6.49308260920084</v>
       </c>
       <c r="I11">
-        <v>2.863409948912087</v>
+        <v>2.595889036013928</v>
       </c>
       <c r="J11">
-        <v>24.82757192770723</v>
+        <v>23.39913547917806</v>
       </c>
       <c r="K11">
-        <v>89.71136125584906</v>
+        <v>51.43308922396645</v>
       </c>
       <c r="L11">
-        <v>9.892391561730566</v>
+        <v>39.38621871487983</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>37.90132034154973</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.6735686563459</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.94890444533588</v>
+        <v>30.82617262337243</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.116122087987795</v>
+        <v>6.618101080566312</v>
       </c>
       <c r="E12">
-        <v>12.70425112938596</v>
+        <v>12.21739864112137</v>
       </c>
       <c r="F12">
-        <v>62.98091797081742</v>
+        <v>61.49565641728779</v>
       </c>
       <c r="G12">
-        <v>96.53189335517438</v>
+        <v>97.27887912591066</v>
       </c>
       <c r="H12">
-        <v>7.421667246624213</v>
+        <v>7.062233368662804</v>
       </c>
       <c r="I12">
-        <v>2.92060248378566</v>
+        <v>2.560507606004847</v>
       </c>
       <c r="J12">
-        <v>24.12937536672609</v>
+        <v>22.29217096195041</v>
       </c>
       <c r="K12">
-        <v>90.81436820082327</v>
+        <v>52.0588753934659</v>
       </c>
       <c r="L12">
-        <v>9.205027967560721</v>
+        <v>39.93783024669932</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>38.30246864933407</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.97738323797309</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.86632728123281</v>
+        <v>30.7462518025294</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.184401081924623</v>
+        <v>6.692653030233036</v>
       </c>
       <c r="E13">
-        <v>11.91032197587438</v>
+        <v>11.4096950321127</v>
       </c>
       <c r="F13">
-        <v>59.93278112609898</v>
+        <v>58.5471355794577</v>
       </c>
       <c r="G13">
-        <v>92.30619036836748</v>
+        <v>93.03759799461989</v>
       </c>
       <c r="H13">
-        <v>8.072633002275328</v>
+        <v>7.77073645747136</v>
       </c>
       <c r="I13">
-        <v>2.906780731808312</v>
+        <v>2.566314080210585</v>
       </c>
       <c r="J13">
-        <v>23.07715132051932</v>
+        <v>21.41750694857063</v>
       </c>
       <c r="K13">
-        <v>90.54689708968277</v>
+        <v>51.90638383812411</v>
       </c>
       <c r="L13">
-        <v>8.533694455911853</v>
+        <v>39.80598852421829</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>38.20247448402373</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8.314897430845024</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.59665531019514</v>
+        <v>30.48420395699846</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.212970669960829</v>
+        <v>6.740235084511105</v>
       </c>
       <c r="E14">
-        <v>11.42401269197021</v>
+        <v>10.92447611700447</v>
       </c>
       <c r="F14">
-        <v>57.36910106065424</v>
+        <v>56.19270044809244</v>
       </c>
       <c r="G14">
-        <v>88.64789497099522</v>
+        <v>89.24781486144316</v>
       </c>
       <c r="H14">
-        <v>8.607103601552485</v>
+        <v>8.350149223707144</v>
       </c>
       <c r="I14">
-        <v>2.8674654234577</v>
+        <v>2.59220310973045</v>
       </c>
       <c r="J14">
-        <v>22.21618242857574</v>
+        <v>20.8917000482296</v>
       </c>
       <c r="K14">
-        <v>89.78932321383581</v>
+        <v>51.47700044073501</v>
       </c>
       <c r="L14">
-        <v>8.091903831612409</v>
+        <v>39.42602775868294</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>37.9285086683449</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.886750696747553</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.43091025861324</v>
+        <v>30.32258936035085</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.204975768881535</v>
+        <v>6.743494658250894</v>
       </c>
       <c r="E15">
-        <v>11.29734728574224</v>
+        <v>10.80283493763027</v>
       </c>
       <c r="F15">
-        <v>56.55286174579324</v>
+        <v>55.48815728223854</v>
       </c>
       <c r="G15">
-        <v>87.44203037921923</v>
+        <v>87.95502441210121</v>
       </c>
       <c r="H15">
-        <v>8.717235684883812</v>
+        <v>8.473787502443015</v>
       </c>
       <c r="I15">
-        <v>2.846492030909862</v>
+        <v>2.611731864001021</v>
       </c>
       <c r="J15">
-        <v>21.93727745001041</v>
+        <v>20.79820372712132</v>
       </c>
       <c r="K15">
-        <v>89.38425024055276</v>
+        <v>51.24893749524615</v>
       </c>
       <c r="L15">
-        <v>7.978845406781822</v>
+        <v>39.21892399607108</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>37.7876077250844</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.78005315214764</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.46102307622637</v>
+        <v>29.37887625672976</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.038077634112515</v>
+        <v>6.629721603940859</v>
       </c>
       <c r="E16">
-        <v>11.05543647810768</v>
+        <v>10.59594340399617</v>
       </c>
       <c r="F16">
-        <v>54.85009154271336</v>
+        <v>54.29549891343846</v>
       </c>
       <c r="G16">
-        <v>84.60447147099531</v>
+        <v>84.65779174558938</v>
       </c>
       <c r="H16">
-        <v>8.310732539401695</v>
+        <v>8.095359036329125</v>
       </c>
       <c r="I16">
-        <v>2.708061172222662</v>
+        <v>2.701333241525482</v>
       </c>
       <c r="J16">
-        <v>21.31863842690873</v>
+        <v>21.04285287828785</v>
       </c>
       <c r="K16">
-        <v>86.6367325381926</v>
+        <v>49.69031687981195</v>
       </c>
       <c r="L16">
-        <v>7.853518331201857</v>
+        <v>37.84102141623072</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>36.79252319122165</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.680871440960749</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.85101104749149</v>
+        <v>28.78437360282644</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.890994567476009</v>
+        <v>6.503442293808055</v>
       </c>
       <c r="E17">
-        <v>11.10873582994195</v>
+        <v>10.66821431359987</v>
       </c>
       <c r="F17">
-        <v>54.95212734423317</v>
+        <v>54.61470399990602</v>
       </c>
       <c r="G17">
-        <v>84.42989024679642</v>
+        <v>84.27814202827216</v>
       </c>
       <c r="H17">
-        <v>7.652876284719833</v>
+        <v>7.435652357149836</v>
       </c>
       <c r="I17">
-        <v>2.623905086322586</v>
+        <v>2.756828564372658</v>
       </c>
       <c r="J17">
-        <v>21.31571138412265</v>
+        <v>21.41110846818204</v>
       </c>
       <c r="K17">
-        <v>84.9163859910049</v>
+        <v>48.71433131431493</v>
       </c>
       <c r="L17">
-        <v>7.983629020475886</v>
+        <v>36.97713587435668</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>36.17066460407906</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.822573795229347</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.49337206267156</v>
+        <v>28.43664851506474</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.758068310867641</v>
+        <v>6.369895670766672</v>
       </c>
       <c r="E18">
-        <v>11.54498188092325</v>
+        <v>11.11489300289126</v>
       </c>
       <c r="F18">
-        <v>56.62949623767418</v>
+        <v>56.36909869099527</v>
       </c>
       <c r="G18">
-        <v>86.55420101420619</v>
+        <v>86.30346747300824</v>
       </c>
       <c r="H18">
-        <v>6.813776612364496</v>
+        <v>6.568404893821345</v>
       </c>
       <c r="I18">
-        <v>2.567073126085469</v>
+        <v>2.779361745601873</v>
       </c>
       <c r="J18">
-        <v>21.84404526454936</v>
+        <v>22.0863820650484</v>
       </c>
       <c r="K18">
-        <v>83.74900462306307</v>
+        <v>48.04792798025666</v>
       </c>
       <c r="L18">
-        <v>8.408802809621074</v>
+        <v>36.40092411624602</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>35.73429275315299</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.251939961373669</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.37226976796863</v>
+        <v>28.31795854695851</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.669568905450577</v>
+        <v>6.267270748805903</v>
       </c>
       <c r="E19">
-        <v>12.41337630932516</v>
+        <v>11.99052973844191</v>
       </c>
       <c r="F19">
-        <v>59.41971075806374</v>
+        <v>59.15428297819104</v>
       </c>
       <c r="G19">
-        <v>90.33508203544218</v>
+        <v>90.03653348039855</v>
       </c>
       <c r="H19">
-        <v>6.159344924407941</v>
+        <v>5.867184807924245</v>
       </c>
       <c r="I19">
-        <v>2.554485117098969</v>
+        <v>2.794314869528642</v>
       </c>
       <c r="J19">
-        <v>22.75062664998802</v>
+        <v>23.01567496273604</v>
       </c>
       <c r="K19">
-        <v>83.47852690970771</v>
+        <v>47.89632765149298</v>
       </c>
       <c r="L19">
-        <v>9.11303709625612</v>
+        <v>36.26050279707646</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>35.64318194640032</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.955403905586103</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.91642397048737</v>
+        <v>28.84824954763209</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.708755731282187</v>
+        <v>6.266164012264912</v>
       </c>
       <c r="E20">
-        <v>14.31405374284886</v>
+        <v>13.88979270066753</v>
       </c>
       <c r="F20">
-        <v>65.10134093068342</v>
+        <v>64.61718621760153</v>
       </c>
       <c r="G20">
-        <v>98.43318866966999</v>
+        <v>98.20936996388433</v>
       </c>
       <c r="H20">
-        <v>6.282975095038509</v>
+        <v>5.919643631031233</v>
       </c>
       <c r="I20">
-        <v>2.632150952014063</v>
+        <v>2.750135631473777</v>
       </c>
       <c r="J20">
-        <v>24.64828222076785</v>
+        <v>24.61927546259431</v>
       </c>
       <c r="K20">
-        <v>85.08804631142094</v>
+        <v>48.81138851086877</v>
       </c>
       <c r="L20">
-        <v>10.49527877753497</v>
+        <v>37.06417201242897</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>36.23151283703383</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.32081481955971</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.677596814857</v>
+        <v>30.56149401689695</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.985915161551999</v>
+        <v>6.49714088194933</v>
       </c>
       <c r="E21">
-        <v>15.2289163793887</v>
+        <v>14.78861374275673</v>
       </c>
       <c r="F21">
-        <v>69.54391405210025</v>
+        <v>67.98797371294467</v>
       </c>
       <c r="G21">
-        <v>105.4282540388842</v>
+        <v>106.064884613949</v>
       </c>
       <c r="H21">
-        <v>7.037636624092334</v>
+        <v>6.584266813133083</v>
       </c>
       <c r="I21">
-        <v>2.887686022020271</v>
+        <v>2.595060600504258</v>
       </c>
       <c r="J21">
-        <v>26.35274133423468</v>
+        <v>24.41073125292668</v>
       </c>
       <c r="K21">
-        <v>90.18568523955392</v>
+        <v>51.70602866140362</v>
       </c>
       <c r="L21">
-        <v>11.10877520090679</v>
+        <v>39.61402082554029</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>38.08735987819351</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.87181462537319</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.77799867576357</v>
+        <v>31.63042662556877</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.170827225695469</v>
+        <v>6.658302690398897</v>
       </c>
       <c r="E22">
-        <v>15.73707752937606</v>
+        <v>15.28727995563084</v>
       </c>
       <c r="F22">
-        <v>72.17892970731036</v>
+        <v>69.89103407280875</v>
       </c>
       <c r="G22">
-        <v>109.6295163460942</v>
+        <v>110.8217182855318</v>
       </c>
       <c r="H22">
-        <v>7.511906727044748</v>
+        <v>6.998340168687093</v>
       </c>
       <c r="I22">
-        <v>3.046085171047987</v>
+        <v>2.537904863496604</v>
       </c>
       <c r="J22">
-        <v>27.39563108011148</v>
+        <v>24.12505304804629</v>
       </c>
       <c r="K22">
-        <v>93.18425791351027</v>
+        <v>53.40228480930088</v>
       </c>
       <c r="L22">
-        <v>11.44417313170417</v>
+        <v>41.12257178706465</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>39.19182060407416</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.16441798311973</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.19327424365965</v>
+        <v>31.0644202503292</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.071736274683621</v>
+        <v>6.569691831471069</v>
       </c>
       <c r="E23">
-        <v>15.46589243627441</v>
+        <v>15.01700534368994</v>
       </c>
       <c r="F23">
-        <v>70.77746641780514</v>
+        <v>68.98428633558889</v>
       </c>
       <c r="G23">
-        <v>107.3957689936459</v>
+        <v>108.1987879590516</v>
       </c>
       <c r="H23">
-        <v>7.258380688502973</v>
+        <v>6.781138630665347</v>
       </c>
       <c r="I23">
-        <v>2.951330104130963</v>
+        <v>2.530020984283473</v>
       </c>
       <c r="J23">
-        <v>26.84109818239779</v>
+        <v>24.46448111995612</v>
       </c>
       <c r="K23">
-        <v>91.38712135191025</v>
+        <v>52.3804719472959</v>
       </c>
       <c r="L23">
-        <v>11.26536200326099</v>
+        <v>40.23222066100625</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>38.50354430454691</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.01272524422018</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.88424622251223</v>
+        <v>28.8192920804388</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.703990601407073</v>
+        <v>6.260740272664885</v>
       </c>
       <c r="E24">
-        <v>14.43621713443281</v>
+        <v>14.01323395664727</v>
       </c>
       <c r="F24">
-        <v>65.35700783305946</v>
+        <v>64.87842223411114</v>
       </c>
       <c r="G24">
-        <v>98.77190545384754</v>
+        <v>98.53730038641596</v>
       </c>
       <c r="H24">
-        <v>6.304721781174123</v>
+        <v>5.940442935954819</v>
       </c>
       <c r="I24">
-        <v>2.611260814615867</v>
+        <v>2.733997186527744</v>
       </c>
       <c r="J24">
-        <v>24.7302024475828</v>
+        <v>24.71448905679102</v>
       </c>
       <c r="K24">
-        <v>84.66516338006231</v>
+        <v>48.56286390895793</v>
       </c>
       <c r="L24">
-        <v>10.58284651513451</v>
+        <v>36.87302669105424</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>36.04806680493458</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.40861083917818</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18238885005402</v>
+        <v>26.17781287942757</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.316554693561356</v>
+        <v>5.945881986395019</v>
       </c>
       <c r="E25">
-        <v>13.309323526669</v>
+        <v>12.9528381392916</v>
       </c>
       <c r="F25">
-        <v>59.24257166205852</v>
+        <v>58.99964810696935</v>
       </c>
       <c r="G25">
-        <v>89.04421273818133</v>
+        <v>88.75513181767266</v>
       </c>
       <c r="H25">
-        <v>5.277429829038588</v>
+        <v>4.981952705048075</v>
       </c>
       <c r="I25">
-        <v>2.742911760467152</v>
+        <v>2.958682043903425</v>
       </c>
       <c r="J25">
-        <v>22.55808353080973</v>
+        <v>22.82098874077341</v>
       </c>
       <c r="K25">
-        <v>76.87445421873976</v>
+        <v>44.14167653325598</v>
       </c>
       <c r="L25">
-        <v>9.83010498325384</v>
+        <v>32.97116878506851</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>33.22389382932771</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.689748874823884</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
